--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2090154.762648302</v>
+        <v>-2090882.031242228</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>239.9059052411878</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>118.3229477586734</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>271.9665480977252</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>191.441719707231</v>
       </c>
       <c r="I11" t="n">
-        <v>48.05352955385968</v>
+        <v>48.05352955385972</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>54.61031803772079</v>
+        <v>54.61031803772082</v>
       </c>
       <c r="T11" t="n">
-        <v>78.04303565571333</v>
+        <v>78.04303565571335</v>
       </c>
       <c r="U11" t="n">
         <v>108.4770562459344</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>73.25956391712484</v>
+        <v>226.9031642561763</v>
       </c>
       <c r="Y11" t="n">
         <v>243.4100022337608</v>
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.70524722757457</v>
+        <v>23.7052472275746</v>
       </c>
       <c r="C12" t="n">
-        <v>29.88056256602297</v>
+        <v>29.880562566023</v>
       </c>
       <c r="D12" t="n">
-        <v>4.617129142345988</v>
+        <v>4.617129142346016</v>
       </c>
       <c r="E12" t="n">
-        <v>46.80395424266462</v>
+        <v>14.81714403310821</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>2.241275971091142</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S12" t="n">
         <v>166.6320173841457</v>
@@ -1506,16 +1506,16 @@
         <v>225.9234913358047</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>187.2700143672037</v>
       </c>
       <c r="W12" t="n">
-        <v>108.8670467386268</v>
+        <v>108.8670467386269</v>
       </c>
       <c r="X12" t="n">
-        <v>62.94504878118471</v>
+        <v>62.94504878118474</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.85475935501159</v>
+        <v>62.85475935501162</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.00404375964453</v>
+        <v>37.00404375964456</v>
       </c>
       <c r="C13" t="n">
-        <v>24.41888467633507</v>
+        <v>24.4188846763351</v>
       </c>
       <c r="D13" t="n">
-        <v>5.78753659591959</v>
+        <v>5.787536595919619</v>
       </c>
       <c r="E13" t="n">
-        <v>3.606026224276405</v>
+        <v>3.606026224276434</v>
       </c>
       <c r="F13" t="n">
-        <v>2.59311160063848</v>
+        <v>2.593111600638508</v>
       </c>
       <c r="G13" t="n">
-        <v>24.9350581397907</v>
+        <v>24.93505813979073</v>
       </c>
       <c r="H13" t="n">
-        <v>17.37224398646469</v>
+        <v>17.37224398646472</v>
       </c>
       <c r="I13" t="n">
-        <v>5.766413901243164</v>
+        <v>5.766413901243193</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.21442947422051</v>
+        <v>24.21442947422054</v>
       </c>
       <c r="S13" t="n">
-        <v>77.21550839057558</v>
+        <v>77.21550839057561</v>
       </c>
       <c r="T13" t="n">
-        <v>84.14353614874885</v>
+        <v>84.14353614874888</v>
       </c>
       <c r="U13" t="n">
         <v>143.4786573998504</v>
       </c>
       <c r="V13" t="n">
-        <v>109.3097069015352</v>
+        <v>109.3097069015353</v>
       </c>
       <c r="W13" t="n">
-        <v>143.6950619142982</v>
+        <v>143.6950619142983</v>
       </c>
       <c r="X13" t="n">
-        <v>82.88171896674439</v>
+        <v>82.88171896674442</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.75671692980202</v>
+        <v>75.75671692980205</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.6307736943153</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>239.102433649969</v>
+        <v>239.1024336499691</v>
       </c>
       <c r="F14" t="n">
-        <v>264.0481093194187</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>271.9665480977252</v>
       </c>
       <c r="H14" t="n">
         <v>191.441719707231</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>48.05352955385976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>54.61031803772079</v>
+        <v>54.61031803772085</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>78.04303565571338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="V14" t="n">
-        <v>184.9243220478421</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>74.06303550834284</v>
       </c>
       <c r="Y14" t="n">
-        <v>243.4100022337608</v>
+        <v>243.4100022337609</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.70524722757457</v>
+        <v>23.70524722757463</v>
       </c>
       <c r="C15" t="n">
-        <v>61.8673727755795</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>4.617129142345988</v>
+        <v>4.617129142346045</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>14.81714403310824</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>2.24127597109117</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S15" t="n">
         <v>166.6320173841457</v>
       </c>
       <c r="T15" t="n">
-        <v>56.24068595177392</v>
+        <v>67.74788146044916</v>
       </c>
       <c r="U15" t="n">
-        <v>83.09555491351195</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V15" t="n">
-        <v>89.9726507271325</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>108.8670467386269</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>62.94504878118477</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.85475935501159</v>
+        <v>62.85475935501165</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.00404375964453</v>
+        <v>37.00404375964459</v>
       </c>
       <c r="C16" t="n">
-        <v>24.41888467633507</v>
+        <v>24.41888467633513</v>
       </c>
       <c r="D16" t="n">
-        <v>5.78753659591959</v>
+        <v>5.787536595919647</v>
       </c>
       <c r="E16" t="n">
-        <v>3.606026224276405</v>
+        <v>3.606026224276462</v>
       </c>
       <c r="F16" t="n">
-        <v>2.59311160063848</v>
+        <v>2.593111600638537</v>
       </c>
       <c r="G16" t="n">
-        <v>24.9350581397907</v>
+        <v>24.93505813979076</v>
       </c>
       <c r="H16" t="n">
-        <v>17.37224398646469</v>
+        <v>17.37224398646475</v>
       </c>
       <c r="I16" t="n">
-        <v>5.766413901243164</v>
+        <v>5.766413901243221</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.21442947422051</v>
+        <v>24.21442947422057</v>
       </c>
       <c r="S16" t="n">
-        <v>77.21550839057558</v>
+        <v>77.21550839057564</v>
       </c>
       <c r="T16" t="n">
-        <v>84.14353614874885</v>
+        <v>84.14353614874891</v>
       </c>
       <c r="U16" t="n">
         <v>143.4786573998504</v>
       </c>
       <c r="V16" t="n">
-        <v>109.3097069015352</v>
+        <v>109.3097069015353</v>
       </c>
       <c r="W16" t="n">
-        <v>143.6950619142982</v>
+        <v>143.6950619142983</v>
       </c>
       <c r="X16" t="n">
-        <v>82.88171896674439</v>
+        <v>82.88171896674444</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.75671692980202</v>
+        <v>75.75671692980208</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>103.3780489524558</v>
       </c>
       <c r="E17" t="n">
-        <v>130.6253774040346</v>
+        <v>130.6253774040347</v>
       </c>
       <c r="F17" t="n">
         <v>155.5710530734843</v>
@@ -1859,7 +1859,7 @@
         <v>163.4894918517908</v>
       </c>
       <c r="H17" t="n">
-        <v>82.9646634612966</v>
+        <v>82.96466346129662</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>76.44726580190775</v>
+        <v>76.44726580190778</v>
       </c>
       <c r="W17" t="n">
-        <v>97.93597604918585</v>
+        <v>97.93597604918588</v>
       </c>
       <c r="X17" t="n">
-        <v>118.4261080102418</v>
+        <v>118.4261080102419</v>
       </c>
       <c r="Y17" t="n">
-        <v>134.9329459878264</v>
+        <v>134.9329459878265</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>86.70675288481827</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H18" t="n">
         <v>109.6090828455255</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3899904926924478</v>
+        <v>231.7558448434138</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>157.579312311577</v>
       </c>
       <c r="U19" t="n">
-        <v>35.00160115391598</v>
+        <v>35.00160115391601</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8326506556008439</v>
+        <v>0.8326506556008724</v>
       </c>
       <c r="W19" t="n">
-        <v>259.8687434187918</v>
+        <v>35.21800566836387</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>103.3780489524558</v>
       </c>
       <c r="E20" t="n">
-        <v>130.6253774040346</v>
+        <v>130.6253774040347</v>
       </c>
       <c r="F20" t="n">
         <v>155.5710530734843</v>
@@ -2096,7 +2096,7 @@
         <v>163.4894918517908</v>
       </c>
       <c r="H20" t="n">
-        <v>82.9646634612966</v>
+        <v>82.96466346129662</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>76.44726580190775</v>
+        <v>76.44726580190778</v>
       </c>
       <c r="W20" t="n">
-        <v>97.93597604918585</v>
+        <v>97.93597604918588</v>
       </c>
       <c r="X20" t="n">
         <v>118.4261080102419</v>
       </c>
       <c r="Y20" t="n">
-        <v>134.9329459878264</v>
+        <v>134.9329459878265</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>35.12954172304899</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>102.2758648869212</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U21" t="n">
         <v>225.9234913358047</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.24065501293978</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,25 +2281,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.989034714556935</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>4.607292937559478</v>
       </c>
       <c r="U22" t="n">
-        <v>35.00160115391598</v>
+        <v>35.00160115391601</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8326506556008439</v>
+        <v>0.8326506556008724</v>
       </c>
       <c r="W22" t="n">
-        <v>35.21800566836384</v>
+        <v>35.21800566836387</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,16 +2448,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>27.88715661944888</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>14.26105395235032</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3899904926924762</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>77.24065501293978</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.0714254388508</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.33865729863726</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>35.00160115391601</v>
+        <v>259.6523389043438</v>
       </c>
       <c r="V25" t="n">
         <v>0.8326506556008724</v>
@@ -2573,7 +2573,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I26" t="n">
-        <v>41.18834840811894</v>
+        <v>41.18834840811896</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2643,10 +2643,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>83.77786654803063</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>5.128030145234438</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S27" t="n">
-        <v>16.93889981611217</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T27" t="n">
         <v>49.37550480603318</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9234913358047</v>
+        <v>76.23037376777121</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>83.10746958139177</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2810,7 +2810,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I29" t="n">
-        <v>41.18834840811894</v>
+        <v>41.18834840811897</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.74513689198005</v>
+        <v>47.74513689198006</v>
       </c>
       <c r="T29" t="n">
-        <v>71.17785450997258</v>
+        <v>71.17785450997259</v>
       </c>
       <c r="U29" t="n">
         <v>101.6118751001936</v>
@@ -2925,7 +2925,7 @@
         <v>49.37550480603318</v>
       </c>
       <c r="U30" t="n">
-        <v>164.6321454904516</v>
+        <v>164.6321454904511</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -3047,7 +3047,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I32" t="n">
-        <v>41.18834840811894</v>
+        <v>41.18834840811901</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.74513689198005</v>
+        <v>47.74513689198012</v>
       </c>
       <c r="T32" t="n">
-        <v>71.17785450997258</v>
+        <v>71.17785450997265</v>
       </c>
       <c r="U32" t="n">
-        <v>101.6118751001936</v>
+        <v>101.6118751001937</v>
       </c>
       <c r="V32" t="n">
-        <v>178.0591409021014</v>
+        <v>178.0591409021015</v>
       </c>
       <c r="W32" t="n">
-        <v>199.5478511493795</v>
+        <v>199.5478511493796</v>
       </c>
       <c r="X32" t="n">
-        <v>220.0379831104355</v>
+        <v>220.0379831104356</v>
       </c>
       <c r="Y32" t="n">
         <v>236.5448210880201</v>
@@ -3117,7 +3117,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>16.93889981611217</v>
+        <v>16.93889981611223</v>
       </c>
       <c r="T33" t="n">
-        <v>137.7772765287136</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9234913358047</v>
+        <v>160.0082403158015</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>102.0018655928861</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.1388626139038</v>
+        <v>30.13886261390385</v>
       </c>
       <c r="C34" t="n">
-        <v>17.55370353059433</v>
+        <v>17.55370353059439</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.06987699404997</v>
+        <v>18.06987699405003</v>
       </c>
       <c r="H34" t="n">
-        <v>10.50706284072395</v>
+        <v>10.50706284072401</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.34924832847977</v>
+        <v>17.34924832847983</v>
       </c>
       <c r="S34" t="n">
-        <v>70.35032724483484</v>
+        <v>70.3503272448349</v>
       </c>
       <c r="T34" t="n">
-        <v>77.27835500300812</v>
+        <v>77.27835500300817</v>
       </c>
       <c r="U34" t="n">
         <v>136.6134762541097</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4445257557945</v>
+        <v>102.4445257557946</v>
       </c>
       <c r="W34" t="n">
-        <v>136.8298807685575</v>
+        <v>136.8298807685576</v>
       </c>
       <c r="X34" t="n">
-        <v>76.01653782100365</v>
+        <v>76.01653782100371</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.89153578406129</v>
+        <v>68.89153578406135</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.9806268148779</v>
+        <v>145.9806268148778</v>
       </c>
       <c r="C35" t="n">
-        <v>128.5196769224049</v>
+        <v>128.5196769224048</v>
       </c>
       <c r="D35" t="n">
-        <v>117.9298267720803</v>
+        <v>117.9298267720802</v>
       </c>
       <c r="E35" t="n">
-        <v>145.1771552236591</v>
+        <v>145.177155223659</v>
       </c>
       <c r="F35" t="n">
-        <v>170.1228308931088</v>
+        <v>170.1228308931087</v>
       </c>
       <c r="G35" t="n">
-        <v>178.0412696714153</v>
+        <v>178.0412696714152</v>
       </c>
       <c r="H35" t="n">
-        <v>97.51644128092107</v>
+        <v>97.51644128092101</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.55177781962445</v>
+        <v>14.55177781962439</v>
       </c>
       <c r="V35" t="n">
-        <v>90.99904362153222</v>
+        <v>90.99904362153217</v>
       </c>
       <c r="W35" t="n">
         <v>112.4877538688103</v>
       </c>
       <c r="X35" t="n">
-        <v>132.9778858298664</v>
+        <v>132.9778858298663</v>
       </c>
       <c r="Y35" t="n">
-        <v>149.4847238074509</v>
+        <v>149.4847238074508</v>
       </c>
     </row>
     <row r="36">
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>31.23730733244355</v>
       </c>
       <c r="V36" t="n">
-        <v>31.23730733244377</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3466,25 +3466,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>180.9954042915545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.55337897354046</v>
+        <v>163.4773578262442</v>
       </c>
       <c r="V37" t="n">
-        <v>15.38442847522532</v>
+        <v>15.38442847522526</v>
       </c>
       <c r="W37" t="n">
-        <v>49.76978348798832</v>
+        <v>49.76978348798826</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>145.9806268148779</v>
       </c>
       <c r="C38" t="n">
-        <v>128.5196769224049</v>
+        <v>128.5196769224048</v>
       </c>
       <c r="D38" t="n">
-        <v>117.9298267720803</v>
+        <v>117.9298267720802</v>
       </c>
       <c r="E38" t="n">
         <v>145.1771552236591</v>
       </c>
       <c r="F38" t="n">
-        <v>170.1228308931088</v>
+        <v>170.1228308931087</v>
       </c>
       <c r="G38" t="n">
-        <v>178.0412696714153</v>
+        <v>178.0412696714152</v>
       </c>
       <c r="H38" t="n">
-        <v>97.51644128092107</v>
+        <v>97.51644128092104</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.55177781962445</v>
+        <v>14.55177781962442</v>
       </c>
       <c r="V38" t="n">
-        <v>90.99904362153222</v>
+        <v>90.99904362153219</v>
       </c>
       <c r="W38" t="n">
         <v>112.4877538688103</v>
       </c>
       <c r="X38" t="n">
-        <v>132.9778858298664</v>
+        <v>132.9778858298663</v>
       </c>
       <c r="Y38" t="n">
         <v>149.4847238074509</v>
@@ -3582,16 +3582,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.27374157744546</v>
+        <v>31.23730733244377</v>
       </c>
       <c r="S39" t="n">
-        <v>112.1073446715076</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9234913358047</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3715,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>49.55337897354046</v>
+        <v>230.548783265095</v>
       </c>
       <c r="V40" t="n">
-        <v>15.38442847522532</v>
+        <v>15.38442847522529</v>
       </c>
       <c r="W40" t="n">
-        <v>49.76978348798832</v>
+        <v>49.76978348798829</v>
       </c>
       <c r="X40" t="n">
-        <v>35.57435626862326</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>161.8628695854745</v>
       </c>
       <c r="C41" t="n">
-        <v>144.4019196930014</v>
+        <v>144.4019196930015</v>
       </c>
       <c r="D41" t="n">
         <v>133.8120695426769</v>
@@ -3749,13 +3749,13 @@
         <v>161.0593979942557</v>
       </c>
       <c r="F41" t="n">
-        <v>186.0050736637053</v>
+        <v>186.0050736637054</v>
       </c>
       <c r="G41" t="n">
         <v>193.9235124420118</v>
       </c>
       <c r="H41" t="n">
-        <v>113.3986840515176</v>
+        <v>113.3986840515177</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.43402059022102</v>
+        <v>30.43402059022105</v>
       </c>
       <c r="V41" t="n">
         <v>106.8812863921288</v>
@@ -3803,7 +3803,7 @@
         <v>128.3699966394069</v>
       </c>
       <c r="X41" t="n">
-        <v>148.8601286004629</v>
+        <v>148.860128600463</v>
       </c>
       <c r="Y41" t="n">
         <v>165.3669665780475</v>
@@ -3825,10 +3825,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>134.092845823561</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>153.5458096991987</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>122.409492175698</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.100500493035515</v>
+        <v>6.100500493035543</v>
       </c>
       <c r="U43" t="n">
-        <v>65.43562174413704</v>
+        <v>65.43562174413707</v>
       </c>
       <c r="V43" t="n">
-        <v>31.2666712458219</v>
+        <v>31.26667124582193</v>
       </c>
       <c r="W43" t="n">
-        <v>188.0615184342831</v>
+        <v>65.65202625858493</v>
       </c>
       <c r="X43" t="n">
-        <v>4.838683311031048</v>
+        <v>4.838683311031076</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U45" t="n">
-        <v>194.7966186336547</v>
+        <v>5.05251925779864</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>118.113587432694</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>122.409492175698</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>65.65202625858493</v>
       </c>
       <c r="X46" t="n">
-        <v>127.2481754867292</v>
+        <v>4.838683311031076</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>543.6156617042308</v>
+        <v>388.4201058061984</v>
       </c>
       <c r="C11" t="n">
-        <v>543.6156617042308</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="D11" t="n">
-        <v>543.6156617042308</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="E11" t="n">
-        <v>543.6156617042308</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="F11" t="n">
-        <v>543.6156617042308</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="G11" t="n">
-        <v>268.9019767570336</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="H11" t="n">
-        <v>75.52650230528516</v>
+        <v>75.52650230528513</v>
       </c>
       <c r="I11" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J11" t="n">
-        <v>57.86375137082629</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K11" t="n">
-        <v>224.8839273401039</v>
+        <v>194.0077595332904</v>
       </c>
       <c r="L11" t="n">
-        <v>484.3638521064407</v>
+        <v>453.4876842996272</v>
       </c>
       <c r="M11" t="n">
-        <v>789.6918103109184</v>
+        <v>758.8156425041047</v>
       </c>
       <c r="N11" t="n">
-        <v>1085.328296543884</v>
+        <v>953.3890681992577</v>
       </c>
       <c r="O11" t="n">
-        <v>1304.933220852845</v>
+        <v>1187.362581054638</v>
       </c>
       <c r="P11" t="n">
-        <v>1304.933220852845</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q11" t="n">
         <v>1349.379178200636</v>
@@ -5072,19 +5072,19 @@
         <v>1215.385891641612</v>
       </c>
       <c r="U11" t="n">
-        <v>1105.81310755481</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="V11" t="n">
-        <v>1105.81310755481</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="W11" t="n">
-        <v>1105.81310755481</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="X11" t="n">
-        <v>1031.813548042563</v>
+        <v>876.6179921445304</v>
       </c>
       <c r="Y11" t="n">
-        <v>785.9448589175516</v>
+        <v>630.7493030195194</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>255.6450162351415</v>
+        <v>217.5206033106728</v>
       </c>
       <c r="C12" t="n">
-        <v>225.4626298048152</v>
+        <v>187.3382168803465</v>
       </c>
       <c r="D12" t="n">
-        <v>220.7988629943648</v>
+        <v>182.674450069896</v>
       </c>
       <c r="E12" t="n">
-        <v>173.5221415371278</v>
+        <v>167.7076379152413</v>
       </c>
       <c r="F12" t="n">
-        <v>26.98758356401273</v>
+        <v>165.443722792927</v>
       </c>
       <c r="G12" t="n">
         <v>26.98758356401273</v>
@@ -5118,52 +5118,52 @@
         <v>26.98758356401273</v>
       </c>
       <c r="J12" t="n">
-        <v>26.98758356401273</v>
+        <v>51.6838379038226</v>
       </c>
       <c r="K12" t="n">
-        <v>26.98758356401273</v>
+        <v>180.1293955274307</v>
       </c>
       <c r="L12" t="n">
-        <v>315.4056578489915</v>
+        <v>468.5474698124095</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8398999542578</v>
+        <v>802.518816417067</v>
       </c>
       <c r="N12" t="n">
-        <v>932.8112465589153</v>
+        <v>802.518816417067</v>
       </c>
       <c r="O12" t="n">
-        <v>1245.618931356884</v>
+        <v>1115.326501215036</v>
       </c>
       <c r="P12" t="n">
-        <v>1245.618931356884</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q12" t="n">
         <v>1349.379178200636</v>
       </c>
       <c r="R12" t="n">
-        <v>1349.379178200636</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="S12" t="n">
-        <v>1181.064009125742</v>
+        <v>1096.949118643474</v>
       </c>
       <c r="T12" t="n">
-        <v>979.9845925862805</v>
+        <v>895.8697021040125</v>
       </c>
       <c r="U12" t="n">
-        <v>751.7790457824374</v>
+        <v>667.6641553001693</v>
       </c>
       <c r="V12" t="n">
-        <v>516.6269375506947</v>
+        <v>478.5025246262261</v>
       </c>
       <c r="W12" t="n">
-        <v>406.6602236732939</v>
+        <v>368.5358107488253</v>
       </c>
       <c r="X12" t="n">
-        <v>343.0793663185619</v>
+        <v>304.9549533940932</v>
       </c>
       <c r="Y12" t="n">
-        <v>279.5897104044087</v>
+        <v>241.4652974799401</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.3201847000411</v>
+        <v>112.3201847000413</v>
       </c>
       <c r="C13" t="n">
-        <v>87.654644622935</v>
+        <v>87.65464462293517</v>
       </c>
       <c r="D13" t="n">
-        <v>81.80864806140005</v>
+        <v>81.80864806140019</v>
       </c>
       <c r="E13" t="n">
-        <v>78.16619732980772</v>
+        <v>78.16619732980783</v>
       </c>
       <c r="F13" t="n">
-        <v>75.54689268269814</v>
+        <v>75.54689268269823</v>
       </c>
       <c r="G13" t="n">
-        <v>50.35996526876814</v>
+        <v>50.3599652687682</v>
       </c>
       <c r="H13" t="n">
-        <v>32.81224407031895</v>
+        <v>32.81224407031899</v>
       </c>
       <c r="I13" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J13" t="n">
-        <v>91.91899215927219</v>
+        <v>91.91899215927216</v>
       </c>
       <c r="K13" t="n">
-        <v>96.095006530734</v>
+        <v>96.09500653073397</v>
       </c>
       <c r="L13" t="n">
         <v>298.3649588358102</v>
@@ -5209,40 +5209,40 @@
         <v>372.9332736231245</v>
       </c>
       <c r="N13" t="n">
-        <v>459.2314474751631</v>
+        <v>459.2314474751635</v>
       </c>
       <c r="O13" t="n">
-        <v>656.8727496945193</v>
+        <v>656.8727496945196</v>
       </c>
       <c r="P13" t="n">
-        <v>822.8761680036254</v>
+        <v>822.8761680036257</v>
       </c>
       <c r="Q13" t="n">
-        <v>897.8751138772329</v>
+        <v>897.8751138772333</v>
       </c>
       <c r="R13" t="n">
-        <v>873.4160942063031</v>
+        <v>873.4160942063035</v>
       </c>
       <c r="S13" t="n">
-        <v>795.4206311855197</v>
+        <v>795.4206311855201</v>
       </c>
       <c r="T13" t="n">
-        <v>710.4271603281976</v>
+        <v>710.4271603281979</v>
       </c>
       <c r="U13" t="n">
-        <v>565.4992235606719</v>
+        <v>565.4992235606722</v>
       </c>
       <c r="V13" t="n">
-        <v>455.0853782055858</v>
+        <v>455.0853782055862</v>
       </c>
       <c r="W13" t="n">
-        <v>309.9388510194259</v>
+        <v>309.9388510194262</v>
       </c>
       <c r="X13" t="n">
-        <v>226.2199429722094</v>
+        <v>226.2199429722096</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.69800667948</v>
+        <v>149.6980066794803</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>728.5959297020109</v>
+        <v>785.1332714516744</v>
       </c>
       <c r="C14" t="n">
-        <v>728.5959297020109</v>
+        <v>785.1332714516744</v>
       </c>
       <c r="D14" t="n">
-        <v>728.5959297020109</v>
+        <v>785.1332714516744</v>
       </c>
       <c r="E14" t="n">
-        <v>487.0783199545675</v>
+        <v>543.6156617042309</v>
       </c>
       <c r="F14" t="n">
-        <v>220.3630580157607</v>
+        <v>543.6156617042309</v>
       </c>
       <c r="G14" t="n">
-        <v>220.3630580157607</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="H14" t="n">
-        <v>26.98758356401273</v>
+        <v>75.52650230528522</v>
       </c>
       <c r="I14" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J14" t="n">
-        <v>26.98758356401273</v>
+        <v>57.86375137082628</v>
       </c>
       <c r="K14" t="n">
-        <v>92.94469899547767</v>
+        <v>224.8839273401039</v>
       </c>
       <c r="L14" t="n">
-        <v>352.4246237618145</v>
+        <v>484.3638521064407</v>
       </c>
       <c r="M14" t="n">
-        <v>657.7525819662922</v>
+        <v>789.6918103109183</v>
       </c>
       <c r="N14" t="n">
-        <v>953.3890681992577</v>
+        <v>1085.328296543884</v>
       </c>
       <c r="O14" t="n">
-        <v>1187.362581054638</v>
+        <v>1319.301809399264</v>
       </c>
       <c r="P14" t="n">
         <v>1349.379178200636</v>
@@ -5306,22 +5306,22 @@
         <v>1294.217240788797</v>
       </c>
       <c r="T14" t="n">
-        <v>1294.217240788797</v>
+        <v>1215.385891641612</v>
       </c>
       <c r="U14" t="n">
-        <v>1294.217240788797</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="V14" t="n">
-        <v>1107.424996296027</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="W14" t="n">
-        <v>1107.424996296027</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="X14" t="n">
-        <v>1107.424996296027</v>
+        <v>1031.001960576685</v>
       </c>
       <c r="Y14" t="n">
-        <v>861.5563071710163</v>
+        <v>785.1332714516744</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>399.9156590859424</v>
+        <v>304.1773387969314</v>
       </c>
       <c r="C15" t="n">
-        <v>337.4233633530338</v>
+        <v>129.7243095158044</v>
       </c>
       <c r="D15" t="n">
-        <v>332.7595965425833</v>
+        <v>125.0605427053539</v>
       </c>
       <c r="E15" t="n">
-        <v>173.5221415371278</v>
+        <v>110.0937305506991</v>
       </c>
       <c r="F15" t="n">
-        <v>26.98758356401273</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="G15" t="n">
-        <v>26.98758356401273</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="H15" t="n">
-        <v>26.98758356401273</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="I15" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J15" t="n">
-        <v>51.68383790382261</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K15" t="n">
-        <v>51.68383790382261</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="L15" t="n">
-        <v>340.1019121888014</v>
+        <v>468.5474698124095</v>
       </c>
       <c r="M15" t="n">
-        <v>674.073258793459</v>
+        <v>468.5474698124095</v>
       </c>
       <c r="N15" t="n">
-        <v>1008.044605398117</v>
+        <v>802.518816417067</v>
       </c>
       <c r="O15" t="n">
-        <v>1245.618931356884</v>
+        <v>1115.326501215036</v>
       </c>
       <c r="P15" t="n">
-        <v>1245.618931356884</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q15" t="n">
         <v>1349.379178200636</v>
       </c>
       <c r="R15" t="n">
-        <v>1349.379178200636</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="S15" t="n">
-        <v>1181.064009125742</v>
+        <v>1096.949118643474</v>
       </c>
       <c r="T15" t="n">
-        <v>1124.255235437081</v>
+        <v>1028.516915148071</v>
       </c>
       <c r="U15" t="n">
-        <v>1040.320331484039</v>
+        <v>800.3113683442275</v>
       </c>
       <c r="V15" t="n">
-        <v>949.4388661030972</v>
+        <v>565.1592601124848</v>
       </c>
       <c r="W15" t="n">
-        <v>695.2015093748955</v>
+        <v>455.1925462350839</v>
       </c>
       <c r="X15" t="n">
-        <v>487.3500091693627</v>
+        <v>391.6116888803518</v>
       </c>
       <c r="Y15" t="n">
-        <v>423.8603532552096</v>
+        <v>328.1220329661987</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.3201847000411</v>
+        <v>112.3201847000415</v>
       </c>
       <c r="C16" t="n">
-        <v>87.654644622935</v>
+        <v>87.65464462293534</v>
       </c>
       <c r="D16" t="n">
-        <v>81.80864806140005</v>
+        <v>81.80864806140033</v>
       </c>
       <c r="E16" t="n">
-        <v>78.16619732980772</v>
+        <v>78.16619732980794</v>
       </c>
       <c r="F16" t="n">
-        <v>75.54689268269814</v>
+        <v>75.54689268269831</v>
       </c>
       <c r="G16" t="n">
-        <v>50.35996526876814</v>
+        <v>50.35996526876826</v>
       </c>
       <c r="H16" t="n">
-        <v>32.81224407031895</v>
+        <v>32.81224407031902</v>
       </c>
       <c r="I16" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J16" t="n">
-        <v>91.91899215927219</v>
+        <v>91.91899215927214</v>
       </c>
       <c r="K16" t="n">
-        <v>104.1633170308689</v>
+        <v>237.4946635888037</v>
       </c>
       <c r="L16" t="n">
-        <v>306.4332693359452</v>
+        <v>439.7646158938799</v>
       </c>
       <c r="M16" t="n">
-        <v>381.0015841232595</v>
+        <v>655.7325877392639</v>
       </c>
       <c r="N16" t="n">
-        <v>459.2314474751631</v>
+        <v>733.9624510911675</v>
       </c>
       <c r="O16" t="n">
-        <v>656.8727496945193</v>
+        <v>798.2724067525901</v>
       </c>
       <c r="P16" t="n">
-        <v>822.8761680036254</v>
+        <v>822.8761680036263</v>
       </c>
       <c r="Q16" t="n">
-        <v>897.8751138772329</v>
+        <v>897.8751138772337</v>
       </c>
       <c r="R16" t="n">
-        <v>873.4160942063031</v>
+        <v>873.4160942063039</v>
       </c>
       <c r="S16" t="n">
-        <v>795.4206311855197</v>
+        <v>795.4206311855204</v>
       </c>
       <c r="T16" t="n">
-        <v>710.4271603281976</v>
+        <v>710.4271603281983</v>
       </c>
       <c r="U16" t="n">
-        <v>565.4992235606719</v>
+        <v>565.4992235606726</v>
       </c>
       <c r="V16" t="n">
-        <v>455.0853782055858</v>
+        <v>455.0853782055864</v>
       </c>
       <c r="W16" t="n">
-        <v>309.9388510194259</v>
+        <v>309.9388510194265</v>
       </c>
       <c r="X16" t="n">
-        <v>226.2199429722094</v>
+        <v>226.2199429722099</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.69800667948</v>
+        <v>149.6980066794805</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>784.5598399739548</v>
+        <v>784.559839973954</v>
       </c>
       <c r="C17" t="n">
-        <v>669.4407499711463</v>
+        <v>669.4407499711455</v>
       </c>
       <c r="D17" t="n">
-        <v>565.0184783019989</v>
+        <v>565.0184783019981</v>
       </c>
       <c r="E17" t="n">
-        <v>433.0736526413579</v>
+        <v>433.0736526413571</v>
       </c>
       <c r="F17" t="n">
-        <v>275.9311747893535</v>
+        <v>275.9311747893527</v>
       </c>
       <c r="G17" t="n">
         <v>110.7902739289588</v>
@@ -5513,19 +5513,19 @@
         <v>26.98758356401273</v>
       </c>
       <c r="J17" t="n">
-        <v>57.86375137082629</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K17" t="n">
-        <v>224.8839273401039</v>
+        <v>194.0077595332904</v>
       </c>
       <c r="L17" t="n">
-        <v>484.3638521064407</v>
+        <v>453.4876842996272</v>
       </c>
       <c r="M17" t="n">
-        <v>789.6918103109184</v>
+        <v>758.8156425041047</v>
       </c>
       <c r="N17" t="n">
-        <v>1085.328296543884</v>
+        <v>908.9431108514659</v>
       </c>
       <c r="O17" t="n">
         <v>1142.916623706846</v>
@@ -5552,13 +5552,13 @@
         <v>1272.159717794669</v>
       </c>
       <c r="W17" t="n">
-        <v>1173.234489462159</v>
+        <v>1173.234489462158</v>
       </c>
       <c r="X17" t="n">
-        <v>1053.612158138682</v>
+        <v>1053.612158138681</v>
       </c>
       <c r="Y17" t="n">
-        <v>917.3162531004734</v>
+        <v>917.3162531004725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>452.663197371544</v>
+        <v>531.4552292369366</v>
       </c>
       <c r="C18" t="n">
-        <v>452.663197371544</v>
+        <v>357.0021999558096</v>
       </c>
       <c r="D18" t="n">
-        <v>452.663197371544</v>
+        <v>357.0021999558096</v>
       </c>
       <c r="E18" t="n">
-        <v>452.663197371544</v>
+        <v>357.0021999558096</v>
       </c>
       <c r="F18" t="n">
-        <v>306.128639398429</v>
+        <v>357.0021999558096</v>
       </c>
       <c r="G18" t="n">
         <v>218.5460607268953</v>
@@ -5595,49 +5595,49 @@
         <v>26.98758356401273</v>
       </c>
       <c r="K18" t="n">
-        <v>26.98758356401273</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="L18" t="n">
-        <v>315.4056578489915</v>
+        <v>484.2363331920537</v>
       </c>
       <c r="M18" t="n">
-        <v>649.3770044536491</v>
+        <v>484.2363331920537</v>
       </c>
       <c r="N18" t="n">
-        <v>983.3483510583067</v>
+        <v>698.7585695733148</v>
       </c>
       <c r="O18" t="n">
-        <v>1115.326501215036</v>
+        <v>1011.566254371284</v>
       </c>
       <c r="P18" t="n">
-        <v>1349.379178200636</v>
+        <v>1245.618931356884</v>
       </c>
       <c r="Q18" t="n">
         <v>1349.379178200636</v>
       </c>
       <c r="R18" t="n">
-        <v>1265.264287718368</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S18" t="n">
-        <v>1265.264287718368</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T18" t="n">
-        <v>1064.184871178907</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U18" t="n">
-        <v>1064.184871178907</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V18" t="n">
-        <v>829.0327629471644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="W18" t="n">
-        <v>828.638833156566</v>
+        <v>1115.282365227491</v>
       </c>
       <c r="X18" t="n">
-        <v>828.638833156566</v>
+        <v>907.4308650219584</v>
       </c>
       <c r="Y18" t="n">
-        <v>620.878534391612</v>
+        <v>699.6705662570046</v>
       </c>
     </row>
     <row r="19">
@@ -5683,31 +5683,31 @@
         <v>166.6022079697952</v>
       </c>
       <c r="N19" t="n">
-        <v>244.8320713216989</v>
+        <v>244.8320713216988</v>
       </c>
       <c r="O19" t="n">
         <v>301.0737164829852</v>
       </c>
       <c r="P19" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="Q19" t="n">
-        <v>325.6774777340215</v>
+        <v>257.9285631493236</v>
       </c>
       <c r="R19" t="n">
-        <v>325.6774777340215</v>
+        <v>257.9285631493236</v>
       </c>
       <c r="S19" t="n">
-        <v>325.6774777340215</v>
+        <v>257.9285631493236</v>
       </c>
       <c r="T19" t="n">
-        <v>325.6774777340215</v>
+        <v>98.75754061237714</v>
       </c>
       <c r="U19" t="n">
-        <v>290.3223250532982</v>
+        <v>63.40238793165389</v>
       </c>
       <c r="V19" t="n">
-        <v>289.4812637850146</v>
+        <v>62.56132666337018</v>
       </c>
       <c r="W19" t="n">
         <v>26.98758356401273</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>784.5598399739544</v>
+        <v>784.5598399739541</v>
       </c>
       <c r="C20" t="n">
-        <v>669.440749971146</v>
+        <v>669.4407499711456</v>
       </c>
       <c r="D20" t="n">
-        <v>565.0184783019988</v>
+        <v>565.0184783019984</v>
       </c>
       <c r="E20" t="n">
-        <v>433.0736526413577</v>
+        <v>433.0736526413575</v>
       </c>
       <c r="F20" t="n">
-        <v>275.9311747893535</v>
+        <v>275.931174789353</v>
       </c>
       <c r="G20" t="n">
         <v>110.7902739289588</v>
@@ -5750,25 +5750,25 @@
         <v>26.98758356401273</v>
       </c>
       <c r="J20" t="n">
-        <v>57.86375137082629</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K20" t="n">
-        <v>224.8839273401039</v>
+        <v>194.0077595332904</v>
       </c>
       <c r="L20" t="n">
-        <v>484.3638521064407</v>
+        <v>453.4876842996272</v>
       </c>
       <c r="M20" t="n">
-        <v>789.6918103109184</v>
+        <v>758.8156425041047</v>
       </c>
       <c r="N20" t="n">
-        <v>1085.328296543884</v>
+        <v>1054.45212873707</v>
       </c>
       <c r="O20" t="n">
-        <v>1142.916623706846</v>
+        <v>1288.425641592451</v>
       </c>
       <c r="P20" t="n">
-        <v>1304.933220852845</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q20" t="n">
         <v>1349.379178200636</v>
@@ -5795,7 +5795,7 @@
         <v>1053.612158138681</v>
       </c>
       <c r="Y20" t="n">
-        <v>917.316253100473</v>
+        <v>917.3162531004727</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107.8298154283848</v>
+        <v>430.7047498973877</v>
       </c>
       <c r="C21" t="n">
-        <v>107.8298154283848</v>
+        <v>395.2203643185503</v>
       </c>
       <c r="D21" t="n">
-        <v>107.8298154283848</v>
+        <v>246.285954657299</v>
       </c>
       <c r="E21" t="n">
-        <v>107.8298154283848</v>
+        <v>246.285954657299</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8298154283848</v>
+        <v>246.285954657299</v>
       </c>
       <c r="G21" t="n">
         <v>107.8298154283848</v>
@@ -5829,52 +5829,52 @@
         <v>26.98758356401273</v>
       </c>
       <c r="J21" t="n">
-        <v>51.68383790382261</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K21" t="n">
-        <v>51.68383790382261</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="L21" t="n">
-        <v>340.1019121888014</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="M21" t="n">
-        <v>468.5474698124094</v>
+        <v>364.7872229686573</v>
       </c>
       <c r="N21" t="n">
-        <v>802.5188164170669</v>
+        <v>698.7585695733148</v>
       </c>
       <c r="O21" t="n">
-        <v>1115.326501215036</v>
+        <v>1011.566254371284</v>
       </c>
       <c r="P21" t="n">
-        <v>1349.379178200636</v>
+        <v>1245.618931356884</v>
       </c>
       <c r="Q21" t="n">
         <v>1349.379178200636</v>
       </c>
       <c r="R21" t="n">
-        <v>1265.264287718368</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S21" t="n">
-        <v>1096.949118643474</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T21" t="n">
-        <v>993.6401642122403</v>
+        <v>1148.299761661175</v>
       </c>
       <c r="U21" t="n">
-        <v>765.4346174083971</v>
+        <v>920.094214857332</v>
       </c>
       <c r="V21" t="n">
-        <v>530.2825091766545</v>
+        <v>684.9421066255893</v>
       </c>
       <c r="W21" t="n">
-        <v>276.0451524484528</v>
+        <v>430.7047498973877</v>
       </c>
       <c r="X21" t="n">
-        <v>276.0451524484528</v>
+        <v>430.7047498973877</v>
       </c>
       <c r="Y21" t="n">
-        <v>276.0451524484528</v>
+        <v>430.7047498973877</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>251.8983947113572</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="C22" t="n">
-        <v>251.8983947113572</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D22" t="n">
-        <v>251.8983947113572</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E22" t="n">
-        <v>251.8983947113572</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J22" t="n">
         <v>26.98758356401273</v>
@@ -5920,40 +5920,40 @@
         <v>166.6022079697952</v>
       </c>
       <c r="N22" t="n">
-        <v>244.8320713216989</v>
+        <v>244.8320713216988</v>
       </c>
       <c r="O22" t="n">
         <v>301.0737164829852</v>
       </c>
       <c r="P22" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="Q22" t="n">
-        <v>323.6683517597215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="R22" t="n">
-        <v>323.6683517597215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="S22" t="n">
-        <v>323.6683517597215</v>
+        <v>103.4113718624372</v>
       </c>
       <c r="T22" t="n">
-        <v>323.6683517597215</v>
+        <v>98.75754061237714</v>
       </c>
       <c r="U22" t="n">
-        <v>288.3131990789983</v>
+        <v>63.40238793165389</v>
       </c>
       <c r="V22" t="n">
-        <v>287.4721378107146</v>
+        <v>62.56132666337018</v>
       </c>
       <c r="W22" t="n">
-        <v>251.8983947113572</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="X22" t="n">
-        <v>251.8983947113572</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="Y22" t="n">
-        <v>251.8983947113572</v>
+        <v>26.98758356401273</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>784.5598399739547</v>
+        <v>784.5598399739541</v>
       </c>
       <c r="C23" t="n">
-        <v>669.4407499711463</v>
+        <v>669.4407499711456</v>
       </c>
       <c r="D23" t="n">
-        <v>565.018478301999</v>
+        <v>565.0184783019984</v>
       </c>
       <c r="E23" t="n">
-        <v>433.073652641358</v>
+        <v>433.0736526413575</v>
       </c>
       <c r="F23" t="n">
-        <v>275.9311747893536</v>
+        <v>275.9311747893535</v>
       </c>
       <c r="G23" t="n">
         <v>110.7902739289588</v>
       </c>
       <c r="H23" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I23" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J23" t="n">
-        <v>26.98758356401274</v>
+        <v>57.86375137082628</v>
       </c>
       <c r="K23" t="n">
-        <v>48.4987416476863</v>
+        <v>224.8839273401039</v>
       </c>
       <c r="L23" t="n">
-        <v>307.9786664140231</v>
+        <v>484.3638521064407</v>
       </c>
       <c r="M23" t="n">
-        <v>613.3066246185008</v>
+        <v>613.3066246185003</v>
       </c>
       <c r="N23" t="n">
-        <v>908.9431108514664</v>
+        <v>908.9431108514659</v>
       </c>
       <c r="O23" t="n">
-        <v>1142.916623706847</v>
+        <v>1142.916623706846</v>
       </c>
       <c r="P23" t="n">
         <v>1304.933220852845</v>
       </c>
       <c r="Q23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V23" t="n">
         <v>1272.159717794669</v>
       </c>
       <c r="W23" t="n">
-        <v>1173.234489462159</v>
+        <v>1173.234489462158</v>
       </c>
       <c r="X23" t="n">
-        <v>1053.612158138682</v>
+        <v>1053.612158138681</v>
       </c>
       <c r="Y23" t="n">
-        <v>917.3162531004733</v>
+        <v>917.3162531004727</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>736.9892673493335</v>
+        <v>496.9095804795061</v>
       </c>
       <c r="C24" t="n">
-        <v>562.5362380682066</v>
+        <v>322.456551198379</v>
       </c>
       <c r="D24" t="n">
-        <v>413.6018284069553</v>
+        <v>173.5221415371278</v>
       </c>
       <c r="E24" t="n">
-        <v>254.3643734014998</v>
+        <v>173.5221415371278</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G24" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H24" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I24" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J24" t="n">
-        <v>26.98758356401274</v>
+        <v>51.6838379038226</v>
       </c>
       <c r="K24" t="n">
-        <v>26.98758356401274</v>
+        <v>220.5145132468848</v>
       </c>
       <c r="L24" t="n">
-        <v>315.4056578489915</v>
+        <v>468.5474698124095</v>
       </c>
       <c r="M24" t="n">
-        <v>649.3770044536491</v>
+        <v>802.518816417067</v>
       </c>
       <c r="N24" t="n">
-        <v>983.3483510583067</v>
+        <v>802.518816417067</v>
       </c>
       <c r="O24" t="n">
-        <v>1011.566254371284</v>
+        <v>1115.326501215036</v>
       </c>
       <c r="P24" t="n">
-        <v>1245.618931356885</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q24" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R24" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S24" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T24" t="n">
-        <v>1321.210333130487</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U24" t="n">
-        <v>1321.210333130487</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V24" t="n">
-        <v>1321.210333130487</v>
+        <v>1334.974073198262</v>
       </c>
       <c r="W24" t="n">
-        <v>1320.816403339888</v>
+        <v>1080.736716470061</v>
       </c>
       <c r="X24" t="n">
-        <v>1112.964903134355</v>
+        <v>872.885216264528</v>
       </c>
       <c r="Y24" t="n">
-        <v>905.2046043694015</v>
+        <v>665.1249174995742</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="C25" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D25" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E25" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F25" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G25" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H25" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I25" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J25" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K25" t="n">
-        <v>31.16359793547455</v>
+        <v>31.16359793547454</v>
       </c>
       <c r="L25" t="n">
         <v>92.03389318248094</v>
@@ -6157,40 +6157,40 @@
         <v>166.6022079697952</v>
       </c>
       <c r="N25" t="n">
-        <v>244.8320713216989</v>
+        <v>244.8320713216988</v>
       </c>
       <c r="O25" t="n">
         <v>301.0737164829852</v>
       </c>
       <c r="P25" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="Q25" t="n">
-        <v>257.9285631493237</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="R25" t="n">
-        <v>176.7784042618113</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="S25" t="n">
-        <v>176.7784042618113</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="T25" t="n">
-        <v>176.7784042618113</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="U25" t="n">
-        <v>141.423251581088</v>
+        <v>63.40238793165389</v>
       </c>
       <c r="V25" t="n">
-        <v>140.5821903128043</v>
+        <v>62.56132666337018</v>
       </c>
       <c r="W25" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="X25" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="Y25" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>811.0293020484628</v>
       </c>
       <c r="F26" t="n">
-        <v>551.2485665194954</v>
+        <v>551.2485665194951</v>
       </c>
       <c r="G26" t="n">
-        <v>283.4694079821373</v>
+        <v>283.469407982137</v>
       </c>
       <c r="H26" t="n">
-        <v>97.02845994022846</v>
+        <v>97.02845994022763</v>
       </c>
       <c r="I26" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J26" t="n">
         <v>234.4964218079619</v>
@@ -6230,16 +6230,16 @@
         <v>549.7127841695927</v>
       </c>
       <c r="L26" t="n">
-        <v>957.3888953282826</v>
+        <v>957.388895328283</v>
       </c>
       <c r="M26" t="n">
-        <v>1410.913039925113</v>
+        <v>1410.913039925114</v>
       </c>
       <c r="N26" t="n">
         <v>1854.745712550432</v>
       </c>
       <c r="O26" t="n">
-        <v>2236.915411798166</v>
+        <v>2236.915411798165</v>
       </c>
       <c r="P26" t="n">
         <v>2547.128195336517</v>
@@ -6248,22 +6248,22 @@
         <v>2739.770339076662</v>
       </c>
       <c r="R26" t="n">
-        <v>2771.203380439759</v>
+        <v>2771.203380439758</v>
       </c>
       <c r="S26" t="n">
-        <v>2722.975969437759</v>
+        <v>2722.975969437758</v>
       </c>
       <c r="T26" t="n">
-        <v>2651.079146700413</v>
+        <v>2651.079146700412</v>
       </c>
       <c r="U26" t="n">
         <v>2548.440889023449</v>
       </c>
       <c r="V26" t="n">
-        <v>2368.583170940517</v>
+        <v>2368.583170940518</v>
       </c>
       <c r="W26" t="n">
-        <v>2167.019684931043</v>
+        <v>2167.019684931044</v>
       </c>
       <c r="X26" t="n">
         <v>1944.759095930604</v>
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.6730691809023</v>
+        <v>689.7633479592737</v>
       </c>
       <c r="C27" t="n">
-        <v>448.2200398997753</v>
+        <v>515.3103186781467</v>
       </c>
       <c r="D27" t="n">
-        <v>299.285630238524</v>
+        <v>366.3759090168954</v>
       </c>
       <c r="E27" t="n">
-        <v>140.0481752330685</v>
+        <v>207.1384540114399</v>
       </c>
       <c r="F27" t="n">
-        <v>55.42406760879518</v>
+        <v>60.6038960383249</v>
       </c>
       <c r="G27" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="H27" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="I27" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J27" t="n">
-        <v>80.12032194860505</v>
+        <v>80.12032194860504</v>
       </c>
       <c r="K27" t="n">
         <v>248.9509972916672</v>
       </c>
       <c r="L27" t="n">
-        <v>537.3690715766461</v>
+        <v>537.369071576646</v>
       </c>
       <c r="M27" t="n">
-        <v>925.9185821058164</v>
+        <v>925.9185821058163</v>
       </c>
       <c r="N27" t="n">
         <v>1340.458855400999</v>
@@ -6321,34 +6321,34 @@
         <v>1653.266540198968</v>
       </c>
       <c r="P27" t="n">
-        <v>1887.319217184569</v>
+        <v>1887.319217184568</v>
       </c>
       <c r="Q27" t="n">
-        <v>1991.079464028321</v>
+        <v>1991.07946402832</v>
       </c>
       <c r="R27" t="n">
-        <v>1991.079464028321</v>
+        <v>1906.964573546052</v>
       </c>
       <c r="S27" t="n">
-        <v>1973.969464214066</v>
+        <v>1738.649404471158</v>
       </c>
       <c r="T27" t="n">
-        <v>1924.095216935244</v>
+        <v>1688.775157192336</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.889670131401</v>
+        <v>1611.774779649133</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.737561899659</v>
+        <v>1527.82784067803</v>
       </c>
       <c r="W27" t="n">
-        <v>1206.500205171457</v>
+        <v>1273.590483949828</v>
       </c>
       <c r="X27" t="n">
-        <v>998.6487049659243</v>
+        <v>1065.738983744296</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.8884062009704</v>
+        <v>857.9786849793418</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.49789674253927</v>
+        <v>102.0206770687631</v>
       </c>
       <c r="C28" t="n">
-        <v>75.76688307527226</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="D28" t="n">
-        <v>76.8337511795952</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="E28" t="n">
-        <v>80.06031455184488</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="F28" t="n">
         <v>84.28966340149611</v>
@@ -6376,58 +6376,58 @@
         <v>66.03726239740523</v>
       </c>
       <c r="H28" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="I28" t="n">
-        <v>56.51184718084777</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J28" t="n">
-        <v>128.2397851103906</v>
+        <v>127.1520055383379</v>
       </c>
       <c r="K28" t="n">
-        <v>280.6119858742055</v>
+        <v>131.3280199097998</v>
       </c>
       <c r="L28" t="n">
-        <v>489.6784675135651</v>
+        <v>340.3945015491593</v>
       </c>
       <c r="M28" t="n">
-        <v>575.771343259062</v>
+        <v>436.0979371929326</v>
       </c>
       <c r="N28" t="n">
-        <v>654.0012066109656</v>
+        <v>514.3278005448362</v>
       </c>
       <c r="O28" t="n">
-        <v>710.2428517722519</v>
+        <v>570.5694457061226</v>
       </c>
       <c r="P28" t="n">
-        <v>734.8466130232881</v>
+        <v>743.3693933495119</v>
       </c>
       <c r="Q28" t="n">
-        <v>816.6420882311789</v>
+        <v>825.1648685574028</v>
       </c>
       <c r="R28" t="n">
-        <v>799.1175949700882</v>
+        <v>807.6403752963121</v>
       </c>
       <c r="S28" t="n">
-        <v>728.056658359144</v>
+        <v>736.5794386853678</v>
       </c>
       <c r="T28" t="n">
-        <v>649.997713911661</v>
+        <v>658.5204942378848</v>
       </c>
       <c r="U28" t="n">
-        <v>512.0043035539744</v>
+        <v>520.5270838801982</v>
       </c>
       <c r="V28" t="n">
-        <v>408.5249846087274</v>
+        <v>417.0477649349513</v>
       </c>
       <c r="W28" t="n">
-        <v>270.3129838324067</v>
+        <v>278.8357641586306</v>
       </c>
       <c r="X28" t="n">
-        <v>193.5286021950293</v>
+        <v>202.0513825212531</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.9411923121391</v>
+        <v>132.4639726383629</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1470.430262411951</v>
+        <v>1470.43026241195</v>
       </c>
       <c r="C29" t="n">
         <v>1252.672914732179</v>
       </c>
       <c r="D29" t="n">
-        <v>1045.612385386069</v>
+        <v>1045.612385386068</v>
       </c>
       <c r="E29" t="n">
-        <v>811.0293020484644</v>
+        <v>811.0293020484636</v>
       </c>
       <c r="F29" t="n">
-        <v>551.2485665194968</v>
+        <v>551.248566519496</v>
       </c>
       <c r="G29" t="n">
-        <v>283.4694079821387</v>
+        <v>283.4694079821379</v>
       </c>
       <c r="H29" t="n">
-        <v>97.02845994022937</v>
+        <v>97.02845994022847</v>
       </c>
       <c r="I29" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J29" t="n">
         <v>234.4964218079619</v>
       </c>
       <c r="K29" t="n">
-        <v>549.7127841695929</v>
+        <v>549.7127841695927</v>
       </c>
       <c r="L29" t="n">
-        <v>957.3888953282828</v>
+        <v>957.3888953282826</v>
       </c>
       <c r="M29" t="n">
         <v>1410.913039925113</v>
@@ -6476,7 +6476,7 @@
         <v>1854.745712550432</v>
       </c>
       <c r="O29" t="n">
-        <v>2236.915411798166</v>
+        <v>2236.915411798165</v>
       </c>
       <c r="P29" t="n">
         <v>2547.128195336517</v>
@@ -6485,28 +6485,28 @@
         <v>2739.770339076662</v>
       </c>
       <c r="R29" t="n">
-        <v>2771.203380439759</v>
+        <v>2771.203380439758</v>
       </c>
       <c r="S29" t="n">
-        <v>2722.975969437759</v>
+        <v>2722.975969437758</v>
       </c>
       <c r="T29" t="n">
-        <v>2651.079146700413</v>
+        <v>2651.079146700412</v>
       </c>
       <c r="U29" t="n">
-        <v>2548.44088902345</v>
+        <v>2548.440889023449</v>
       </c>
       <c r="V29" t="n">
-        <v>2368.583170940519</v>
+        <v>2368.583170940518</v>
       </c>
       <c r="W29" t="n">
-        <v>2167.019684931045</v>
+        <v>2167.019684931044</v>
       </c>
       <c r="X29" t="n">
-        <v>1944.759095930605</v>
+        <v>1944.759095930604</v>
       </c>
       <c r="Y29" t="n">
-        <v>1705.824933215433</v>
+        <v>1705.824933215432</v>
       </c>
     </row>
     <row r="30">
@@ -6528,28 +6528,28 @@
         <v>201.9586255819102</v>
       </c>
       <c r="F30" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="G30" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="H30" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="I30" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J30" t="n">
-        <v>80.12032194860505</v>
+        <v>80.12032194860504</v>
       </c>
       <c r="K30" t="n">
         <v>248.9509972916672</v>
       </c>
       <c r="L30" t="n">
-        <v>537.3690715766461</v>
+        <v>537.369071576646</v>
       </c>
       <c r="M30" t="n">
-        <v>925.9185821058164</v>
+        <v>925.9185821058163</v>
       </c>
       <c r="N30" t="n">
         <v>1340.458855400999</v>
@@ -6558,13 +6558,13 @@
         <v>1653.266540198968</v>
       </c>
       <c r="P30" t="n">
-        <v>1887.319217184569</v>
+        <v>1887.319217184568</v>
       </c>
       <c r="Q30" t="n">
-        <v>1991.079464028321</v>
+        <v>1991.07946402832</v>
       </c>
       <c r="R30" t="n">
-        <v>1991.079464028321</v>
+        <v>1991.07946402832</v>
       </c>
       <c r="S30" t="n">
         <v>1973.969464214066</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.0206770687631</v>
+        <v>97.79132821911189</v>
       </c>
       <c r="C31" t="n">
-        <v>84.28966340149611</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="D31" t="n">
-        <v>84.28966340149611</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="E31" t="n">
-        <v>84.28966340149611</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="F31" t="n">
         <v>84.28966340149611</v>
@@ -6613,58 +6613,58 @@
         <v>66.03726239740523</v>
       </c>
       <c r="H31" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="I31" t="n">
-        <v>55.42406760879518</v>
+        <v>56.51184718084777</v>
       </c>
       <c r="J31" t="n">
-        <v>55.42406760879518</v>
+        <v>128.2397851103905</v>
       </c>
       <c r="K31" t="n">
-        <v>59.60008198025699</v>
+        <v>280.6119858742055</v>
       </c>
       <c r="L31" t="n">
-        <v>120.4703772272634</v>
+        <v>341.4822811212119</v>
       </c>
       <c r="M31" t="n">
-        <v>343.2348784069309</v>
+        <v>416.0505959085262</v>
       </c>
       <c r="N31" t="n">
-        <v>421.4647417588345</v>
+        <v>494.2804592604298</v>
       </c>
       <c r="O31" t="n">
-        <v>570.5694457061226</v>
+        <v>698.7182908140694</v>
       </c>
       <c r="P31" t="n">
-        <v>743.3693933495119</v>
+        <v>739.1400444998607</v>
       </c>
       <c r="Q31" t="n">
-        <v>825.1648685574028</v>
+        <v>820.9355197077515</v>
       </c>
       <c r="R31" t="n">
-        <v>807.6403752963121</v>
+        <v>803.4110264466608</v>
       </c>
       <c r="S31" t="n">
-        <v>736.5794386853678</v>
+        <v>732.3500898357165</v>
       </c>
       <c r="T31" t="n">
-        <v>658.5204942378848</v>
+        <v>654.2911453882335</v>
       </c>
       <c r="U31" t="n">
-        <v>520.5270838801982</v>
+        <v>516.297735030547</v>
       </c>
       <c r="V31" t="n">
-        <v>417.0477649349513</v>
+        <v>412.8184160853</v>
       </c>
       <c r="W31" t="n">
-        <v>278.8357641586306</v>
+        <v>274.6064153089793</v>
       </c>
       <c r="X31" t="n">
-        <v>202.0513825212531</v>
+        <v>197.8220336716019</v>
       </c>
       <c r="Y31" t="n">
-        <v>132.4639726383629</v>
+        <v>128.2346237887117</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1470.430262411951</v>
+        <v>1470.43026241195</v>
       </c>
       <c r="C32" t="n">
         <v>1252.672914732179</v>
       </c>
       <c r="D32" t="n">
-        <v>1045.612385386069</v>
+        <v>1045.612385386068</v>
       </c>
       <c r="E32" t="n">
-        <v>811.0293020484643</v>
+        <v>811.0293020484637</v>
       </c>
       <c r="F32" t="n">
-        <v>551.2485665194968</v>
+        <v>551.248566519496</v>
       </c>
       <c r="G32" t="n">
-        <v>283.4694079821384</v>
+        <v>283.4694079821379</v>
       </c>
       <c r="H32" t="n">
         <v>97.02845994022846</v>
@@ -6701,13 +6701,13 @@
         <v>234.4964218079619</v>
       </c>
       <c r="K32" t="n">
-        <v>549.7127841695927</v>
+        <v>549.7127841695926</v>
       </c>
       <c r="L32" t="n">
-        <v>957.3888953282826</v>
+        <v>957.3888953282831</v>
       </c>
       <c r="M32" t="n">
-        <v>1410.913039925113</v>
+        <v>1410.913039925114</v>
       </c>
       <c r="N32" t="n">
         <v>1854.745712550432</v>
@@ -6728,10 +6728,10 @@
         <v>2722.975969437759</v>
       </c>
       <c r="T32" t="n">
-        <v>2651.079146700413</v>
+        <v>2651.079146700412</v>
       </c>
       <c r="U32" t="n">
-        <v>2548.440889023449</v>
+        <v>2548.44088902345</v>
       </c>
       <c r="V32" t="n">
         <v>2368.583170940519</v>
@@ -6740,10 +6740,10 @@
         <v>2167.019684931045</v>
       </c>
       <c r="X32" t="n">
-        <v>1944.759095930605</v>
+        <v>1944.759095930604</v>
       </c>
       <c r="Y32" t="n">
-        <v>1705.824933215433</v>
+        <v>1705.824933215432</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>684.583519529744</v>
+        <v>538.0489615566289</v>
       </c>
       <c r="C33" t="n">
-        <v>510.130490248617</v>
+        <v>363.5959322755019</v>
       </c>
       <c r="D33" t="n">
-        <v>361.1960805873657</v>
+        <v>214.6615226142507</v>
       </c>
       <c r="E33" t="n">
-        <v>201.9586255819102</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="F33" t="n">
         <v>55.42406760879518</v>
@@ -6777,16 +6777,16 @@
         <v>55.42406760879518</v>
       </c>
       <c r="J33" t="n">
-        <v>80.12032194860505</v>
+        <v>80.12032194860504</v>
       </c>
       <c r="K33" t="n">
         <v>248.9509972916672</v>
       </c>
       <c r="L33" t="n">
-        <v>537.3690715766461</v>
+        <v>537.369071576646</v>
       </c>
       <c r="M33" t="n">
-        <v>925.9185821058164</v>
+        <v>925.9185821058163</v>
       </c>
       <c r="N33" t="n">
         <v>1340.458855400999</v>
@@ -6795,34 +6795,34 @@
         <v>1653.266540198968</v>
       </c>
       <c r="P33" t="n">
-        <v>1887.319217184569</v>
+        <v>1887.319217184568</v>
       </c>
       <c r="Q33" t="n">
-        <v>1991.079464028321</v>
+        <v>1991.07946402832</v>
       </c>
       <c r="R33" t="n">
-        <v>1991.079464028321</v>
+        <v>1991.07946402832</v>
       </c>
       <c r="S33" t="n">
         <v>1973.969464214066</v>
       </c>
       <c r="T33" t="n">
-        <v>1834.800498023446</v>
+        <v>1772.890047674604</v>
       </c>
       <c r="U33" t="n">
-        <v>1606.594951219603</v>
+        <v>1611.265562507128</v>
       </c>
       <c r="V33" t="n">
-        <v>1371.44284298786</v>
+        <v>1376.113454275385</v>
       </c>
       <c r="W33" t="n">
-        <v>1268.410655520299</v>
+        <v>1121.876097547184</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.559155314766</v>
+        <v>914.0245973416509</v>
       </c>
       <c r="Y33" t="n">
-        <v>852.7988565498119</v>
+        <v>706.264298576697</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.49789674253927</v>
+        <v>102.0206770687633</v>
       </c>
       <c r="C34" t="n">
-        <v>75.76688307527226</v>
+        <v>84.28966340149623</v>
       </c>
       <c r="D34" t="n">
-        <v>76.8337511795952</v>
+        <v>84.28966340149623</v>
       </c>
       <c r="E34" t="n">
-        <v>80.06031455184488</v>
+        <v>84.28966340149623</v>
       </c>
       <c r="F34" t="n">
-        <v>84.28966340149611</v>
+        <v>84.28966340149623</v>
       </c>
       <c r="G34" t="n">
-        <v>66.03726239740523</v>
+        <v>66.03726239740529</v>
       </c>
       <c r="H34" t="n">
         <v>55.42406760879518</v>
       </c>
       <c r="I34" t="n">
-        <v>56.51184718084777</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J34" t="n">
-        <v>128.2397851103906</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="K34" t="n">
-        <v>280.6119858742055</v>
+        <v>86.06242958179712</v>
       </c>
       <c r="L34" t="n">
-        <v>353.0068420793945</v>
+        <v>295.1289112211566</v>
       </c>
       <c r="M34" t="n">
-        <v>427.5751568667088</v>
+        <v>517.893412400824</v>
       </c>
       <c r="N34" t="n">
-        <v>505.8050202186124</v>
+        <v>596.1232757527276</v>
       </c>
       <c r="O34" t="n">
-        <v>562.0466653798987</v>
+        <v>652.364920914014</v>
       </c>
       <c r="P34" t="n">
-        <v>734.8466130232881</v>
+        <v>825.1648685574033</v>
       </c>
       <c r="Q34" t="n">
-        <v>816.6420882311789</v>
+        <v>825.1648685574033</v>
       </c>
       <c r="R34" t="n">
-        <v>799.1175949700882</v>
+        <v>807.6403752963126</v>
       </c>
       <c r="S34" t="n">
-        <v>728.056658359144</v>
+        <v>736.5794386853682</v>
       </c>
       <c r="T34" t="n">
-        <v>649.997713911661</v>
+        <v>658.5204942378853</v>
       </c>
       <c r="U34" t="n">
-        <v>512.0043035539744</v>
+        <v>520.5270838801987</v>
       </c>
       <c r="V34" t="n">
-        <v>408.5249846087274</v>
+        <v>417.0477649349517</v>
       </c>
       <c r="W34" t="n">
-        <v>270.3129838324067</v>
+        <v>278.8357641586309</v>
       </c>
       <c r="X34" t="n">
-        <v>193.5286021950293</v>
+        <v>202.0513825212534</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.9411923121391</v>
+        <v>132.4639726383631</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>876.3521304873564</v>
       </c>
       <c r="C35" t="n">
-        <v>746.5342750101796</v>
+        <v>746.5342750101798</v>
       </c>
       <c r="D35" t="n">
-        <v>627.4132378666642</v>
+        <v>627.4132378666644</v>
       </c>
       <c r="E35" t="n">
-        <v>480.769646731655</v>
+        <v>480.7696467316553</v>
       </c>
       <c r="F35" t="n">
-        <v>308.9284034052826</v>
+        <v>308.9284034052829</v>
       </c>
       <c r="G35" t="n">
-        <v>129.0887370705192</v>
+        <v>129.0887370705191</v>
       </c>
       <c r="H35" t="n">
         <v>30.58728123120494</v>
@@ -6944,13 +6944,13 @@
         <v>487.963549773633</v>
       </c>
       <c r="M35" t="n">
-        <v>793.2915079781106</v>
+        <v>793.2915079781105</v>
       </c>
       <c r="N35" t="n">
         <v>1088.927994211076</v>
       </c>
       <c r="O35" t="n">
-        <v>1322.901507066457</v>
+        <v>1322.901507066456</v>
       </c>
       <c r="P35" t="n">
         <v>1484.918104212455</v>
@@ -7014,25 +7014,25 @@
         <v>30.58728123120494</v>
       </c>
       <c r="J36" t="n">
-        <v>55.28353557101482</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="K36" t="n">
-        <v>55.28353557101482</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="L36" t="n">
-        <v>121.7082424606031</v>
+        <v>225.4684893043552</v>
       </c>
       <c r="M36" t="n">
-        <v>500.2258476967642</v>
+        <v>603.9860945405163</v>
       </c>
       <c r="N36" t="n">
-        <v>878.7434529329254</v>
+        <v>982.5036997766774</v>
       </c>
       <c r="O36" t="n">
-        <v>1191.551137730894</v>
+        <v>1295.311384574646</v>
       </c>
       <c r="P36" t="n">
-        <v>1425.603814716495</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="Q36" t="n">
         <v>1529.364061560247</v>
@@ -7047,7 +7047,7 @@
         <v>1529.364061560247</v>
       </c>
       <c r="U36" t="n">
-        <v>1529.364061560247</v>
+        <v>1497.81122587091</v>
       </c>
       <c r="V36" t="n">
         <v>1497.81122587091</v>
@@ -7096,40 +7096,40 @@
         <v>30.58728123120494</v>
       </c>
       <c r="K37" t="n">
-        <v>34.76329560266676</v>
+        <v>34.76329560266674</v>
       </c>
       <c r="L37" t="n">
-        <v>95.63359084967315</v>
+        <v>95.63359084967314</v>
       </c>
       <c r="M37" t="n">
         <v>170.2019056369874</v>
       </c>
       <c r="N37" t="n">
-        <v>248.4317689888911</v>
+        <v>248.431768988891</v>
       </c>
       <c r="O37" t="n">
-        <v>304.6734141501774</v>
+        <v>304.6734141501773</v>
       </c>
       <c r="P37" t="n">
         <v>329.2771754012136</v>
       </c>
       <c r="Q37" t="n">
-        <v>329.2771754012136</v>
+        <v>261.5282608165158</v>
       </c>
       <c r="R37" t="n">
-        <v>329.2771754012136</v>
+        <v>261.5282608165158</v>
       </c>
       <c r="S37" t="n">
-        <v>146.4535347026737</v>
+        <v>261.5282608165158</v>
       </c>
       <c r="T37" t="n">
-        <v>146.4535347026737</v>
+        <v>261.5282608165158</v>
       </c>
       <c r="U37" t="n">
-        <v>96.39961654758237</v>
+        <v>96.39961654758226</v>
       </c>
       <c r="V37" t="n">
-        <v>80.85978980493053</v>
+        <v>80.85978980493047</v>
       </c>
       <c r="W37" t="n">
         <v>30.58728123120494</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>876.3521304873555</v>
+        <v>876.352130487356</v>
       </c>
       <c r="C38" t="n">
-        <v>746.5342750101787</v>
+        <v>746.5342750101795</v>
       </c>
       <c r="D38" t="n">
-        <v>627.4132378666634</v>
+        <v>627.4132378666641</v>
       </c>
       <c r="E38" t="n">
-        <v>480.7696467316543</v>
+        <v>480.7696467316549</v>
       </c>
       <c r="F38" t="n">
-        <v>308.9284034052821</v>
+        <v>308.9284034052824</v>
       </c>
       <c r="G38" t="n">
-        <v>129.0887370705192</v>
+        <v>129.0887370705191</v>
       </c>
       <c r="H38" t="n">
         <v>30.58728123120494</v>
@@ -7172,16 +7172,16 @@
         <v>30.58728123120494</v>
       </c>
       <c r="J38" t="n">
-        <v>61.46344903801855</v>
+        <v>61.46344903801878</v>
       </c>
       <c r="K38" t="n">
-        <v>228.4836250072963</v>
+        <v>228.4836250072965</v>
       </c>
       <c r="L38" t="n">
-        <v>487.9635497736333</v>
+        <v>487.9635497736335</v>
       </c>
       <c r="M38" t="n">
-        <v>793.291507978111</v>
+        <v>793.2915079781112</v>
       </c>
       <c r="N38" t="n">
         <v>1088.927994211077</v>
@@ -7217,7 +7217,7 @@
         <v>1174.801979600819</v>
       </c>
       <c r="Y38" t="n">
-        <v>1023.807309088242</v>
+        <v>1023.807309088243</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30.58728123120494</v>
+        <v>659.7467331521538</v>
       </c>
       <c r="C39" t="n">
-        <v>30.58728123120494</v>
+        <v>485.2937038710268</v>
       </c>
       <c r="D39" t="n">
-        <v>30.58728123120494</v>
+        <v>336.3592942097755</v>
       </c>
       <c r="E39" t="n">
-        <v>30.58728123120494</v>
+        <v>177.12183920432</v>
       </c>
       <c r="F39" t="n">
         <v>30.58728123120494</v>
@@ -7251,22 +7251,22 @@
         <v>30.58728123120494</v>
       </c>
       <c r="J39" t="n">
-        <v>55.28353557101482</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="K39" t="n">
-        <v>224.114210914077</v>
+        <v>199.4179565742671</v>
       </c>
       <c r="L39" t="n">
-        <v>512.5322851990558</v>
+        <v>487.8360308592459</v>
       </c>
       <c r="M39" t="n">
-        <v>891.0498904352169</v>
+        <v>866.3536360954071</v>
       </c>
       <c r="N39" t="n">
-        <v>1269.567495671378</v>
+        <v>1244.871241331568</v>
       </c>
       <c r="O39" t="n">
-        <v>1529.364061560247</v>
+        <v>1295.311384574647</v>
       </c>
       <c r="P39" t="n">
         <v>1529.364061560247</v>
@@ -7275,28 +7275,28 @@
         <v>1529.364061560247</v>
       </c>
       <c r="R39" t="n">
-        <v>1445.249171077979</v>
+        <v>1497.81122587091</v>
       </c>
       <c r="S39" t="n">
-        <v>1332.009428985547</v>
+        <v>1497.81122587091</v>
       </c>
       <c r="T39" t="n">
-        <v>1332.009428985547</v>
+        <v>1497.81122587091</v>
       </c>
       <c r="U39" t="n">
-        <v>1103.803882181704</v>
+        <v>1497.81122587091</v>
       </c>
       <c r="V39" t="n">
-        <v>868.6517739499614</v>
+        <v>1497.81122587091</v>
       </c>
       <c r="W39" t="n">
-        <v>614.4144172217598</v>
+        <v>1243.573869142708</v>
       </c>
       <c r="X39" t="n">
-        <v>406.5629170162269</v>
+        <v>1035.722368937176</v>
       </c>
       <c r="Y39" t="n">
-        <v>198.802618251273</v>
+        <v>827.9620701722217</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.4772287291153</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="C40" t="n">
-        <v>177.4772287291153</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="D40" t="n">
-        <v>177.4772287291153</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="E40" t="n">
-        <v>177.4772287291153</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="F40" t="n">
         <v>30.58728123120494</v>
@@ -7333,19 +7333,19 @@
         <v>30.58728123120494</v>
       </c>
       <c r="K40" t="n">
-        <v>34.76329560266676</v>
+        <v>34.76329560266675</v>
       </c>
       <c r="L40" t="n">
-        <v>95.63359084967315</v>
+        <v>95.63359084967314</v>
       </c>
       <c r="M40" t="n">
         <v>170.2019056369874</v>
       </c>
       <c r="N40" t="n">
-        <v>248.4317689888911</v>
+        <v>248.431768988891</v>
       </c>
       <c r="O40" t="n">
-        <v>304.6734141501774</v>
+        <v>304.6734141501773</v>
       </c>
       <c r="P40" t="n">
         <v>329.2771754012136</v>
@@ -7363,19 +7363,19 @@
         <v>329.2771754012136</v>
       </c>
       <c r="U40" t="n">
-        <v>279.2232572461223</v>
+        <v>96.39961654758231</v>
       </c>
       <c r="V40" t="n">
-        <v>263.6834305034704</v>
+        <v>80.8597898049305</v>
       </c>
       <c r="W40" t="n">
-        <v>213.4109219297449</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="X40" t="n">
-        <v>177.4772287291153</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="Y40" t="n">
-        <v>177.4772287291153</v>
+        <v>30.58728123120494</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.536964290748</v>
+        <v>976.5369642907481</v>
       </c>
       <c r="C41" t="n">
         <v>830.6764393483222</v>
       </c>
       <c r="D41" t="n">
-        <v>695.5127327395578</v>
+        <v>695.5127327395576</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8264721392998</v>
+        <v>532.8264721392994</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9425593476783</v>
+        <v>344.9425593476778</v>
       </c>
       <c r="G41" t="n">
         <v>149.060223547666</v>
@@ -7406,34 +7406,34 @@
         <v>34.51609824310267</v>
       </c>
       <c r="I41" t="n">
-        <v>34.51609824310267</v>
+        <v>64.20570928393775</v>
       </c>
       <c r="J41" t="n">
-        <v>65.39226604991623</v>
+        <v>95.08187709075131</v>
       </c>
       <c r="K41" t="n">
-        <v>232.4124420191939</v>
+        <v>262.1020530600289</v>
       </c>
       <c r="L41" t="n">
-        <v>491.8923667855307</v>
+        <v>521.5819778263658</v>
       </c>
       <c r="M41" t="n">
-        <v>797.2203249900083</v>
+        <v>826.9099360308435</v>
       </c>
       <c r="N41" t="n">
-        <v>1092.856811222974</v>
+        <v>1160.271337036181</v>
       </c>
       <c r="O41" t="n">
-        <v>1519.342357661343</v>
+        <v>1394.244849891561</v>
       </c>
       <c r="P41" t="n">
-        <v>1681.358954807342</v>
+        <v>1556.26144703756</v>
       </c>
       <c r="Q41" t="n">
-        <v>1725.804912155133</v>
+        <v>1600.707404385352</v>
       </c>
       <c r="R41" t="n">
-        <v>1725.804912155133</v>
+        <v>1702.606521713321</v>
       </c>
       <c r="S41" t="n">
         <v>1725.804912155133</v>
@@ -7445,13 +7445,13 @@
         <v>1695.063477215516</v>
       </c>
       <c r="V41" t="n">
-        <v>1587.102581869931</v>
+        <v>1587.102581869932</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.435918597803</v>
+        <v>1457.435918597804</v>
       </c>
       <c r="X41" t="n">
-        <v>1307.072152334709</v>
+        <v>1307.07215233471</v>
       </c>
       <c r="Y41" t="n">
         <v>1140.034812356884</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>517.1409921909365</v>
+        <v>504.438095158596</v>
       </c>
       <c r="C42" t="n">
-        <v>342.6879629098095</v>
+        <v>329.985065877469</v>
       </c>
       <c r="D42" t="n">
-        <v>193.7535532485582</v>
+        <v>181.0506562162177</v>
       </c>
       <c r="E42" t="n">
-        <v>34.51609824310267</v>
+        <v>181.0506562162177</v>
       </c>
       <c r="F42" t="n">
         <v>34.51609824310267</v>
@@ -7488,16 +7488,16 @@
         <v>34.51609824310267</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51609824310267</v>
+        <v>59.21235258291254</v>
       </c>
       <c r="K42" t="n">
-        <v>34.51609824310267</v>
+        <v>228.0430279259747</v>
       </c>
       <c r="L42" t="n">
-        <v>272.094519703459</v>
+        <v>516.4611022109535</v>
       </c>
       <c r="M42" t="n">
-        <v>660.6440302326293</v>
+        <v>905.0106127401239</v>
       </c>
       <c r="N42" t="n">
         <v>1075.184303527812</v>
@@ -7521,19 +7521,19 @@
         <v>1725.804912155133</v>
       </c>
       <c r="U42" t="n">
-        <v>1590.357593141435</v>
+        <v>1497.59936535129</v>
       </c>
       <c r="V42" t="n">
-        <v>1355.205484909693</v>
+        <v>1342.502587877352</v>
       </c>
       <c r="W42" t="n">
-        <v>1100.968128181491</v>
+        <v>1088.265231149151</v>
       </c>
       <c r="X42" t="n">
-        <v>893.1166279759584</v>
+        <v>880.4137309436178</v>
       </c>
       <c r="Y42" t="n">
-        <v>685.3563292110045</v>
+        <v>672.6534321786639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51609824310267</v>
+        <v>158.162049935727</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51609824310267</v>
+        <v>158.162049935727</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51609824310267</v>
+        <v>158.162049935727</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51609824310267</v>
+        <v>158.162049935727</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51609824310267</v>
+        <v>158.162049935727</v>
       </c>
       <c r="G43" t="n">
         <v>34.51609824310267</v>
@@ -7582,19 +7582,19 @@
         <v>252.3605860007888</v>
       </c>
       <c r="O43" t="n">
-        <v>308.6022311620752</v>
+        <v>308.6022311620751</v>
       </c>
       <c r="P43" t="n">
-        <v>333.2059924131114</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="Q43" t="n">
-        <v>333.2059924131114</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="R43" t="n">
-        <v>333.2059924131114</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="S43" t="n">
-        <v>333.2059924131114</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="T43" t="n">
         <v>327.0438707029745</v>
@@ -7606,13 +7606,13 @@
         <v>229.3647868747331</v>
       </c>
       <c r="W43" t="n">
-        <v>39.40365714313403</v>
+        <v>163.0496088357584</v>
       </c>
       <c r="X43" t="n">
-        <v>34.51609824310267</v>
+        <v>158.162049935727</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51609824310267</v>
+        <v>158.162049935727</v>
       </c>
     </row>
     <row r="44">
@@ -7652,13 +7652,13 @@
         <v>262.1020530600289</v>
       </c>
       <c r="L44" t="n">
-        <v>521.5819778263658</v>
+        <v>559.3068925987377</v>
       </c>
       <c r="M44" t="n">
-        <v>826.9099360308435</v>
+        <v>864.6348508032154</v>
       </c>
       <c r="N44" t="n">
-        <v>1122.546422263809</v>
+        <v>1160.271337036181</v>
       </c>
       <c r="O44" t="n">
         <v>1394.244849891561</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>663.6755501640515</v>
+        <v>744.5177820284235</v>
       </c>
       <c r="C45" t="n">
-        <v>489.2225208829245</v>
+        <v>570.0647527472966</v>
       </c>
       <c r="D45" t="n">
-        <v>340.2881112216732</v>
+        <v>421.1303430860452</v>
       </c>
       <c r="E45" t="n">
-        <v>181.0506562162177</v>
+        <v>261.8928880805897</v>
       </c>
       <c r="F45" t="n">
-        <v>34.51609824310267</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="G45" t="n">
-        <v>34.51609824310267</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51609824310267</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="I45" t="n">
         <v>34.51609824310267</v>
       </c>
       <c r="J45" t="n">
-        <v>34.51609824310267</v>
+        <v>59.21235258291254</v>
       </c>
       <c r="K45" t="n">
-        <v>87.43669226223238</v>
+        <v>228.0430279259747</v>
       </c>
       <c r="L45" t="n">
-        <v>375.8547665472112</v>
+        <v>516.4611022109535</v>
       </c>
       <c r="M45" t="n">
-        <v>764.4042770763815</v>
+        <v>905.0106127401239</v>
       </c>
       <c r="N45" t="n">
-        <v>1178.944550371564</v>
+        <v>1075.184303527812</v>
       </c>
       <c r="O45" t="n">
-        <v>1491.752235169533</v>
+        <v>1387.991988325781</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.804912155133</v>
+        <v>1622.044665311381</v>
       </c>
       <c r="Q45" t="n">
         <v>1725.804912155133</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.804912155133</v>
+        <v>1641.690021672865</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.804912155133</v>
+        <v>1473.374852597971</v>
       </c>
       <c r="T45" t="n">
-        <v>1725.804912155133</v>
+        <v>1272.295436058509</v>
       </c>
       <c r="U45" t="n">
-        <v>1529.040650909018</v>
+        <v>1267.191881252652</v>
       </c>
       <c r="V45" t="n">
-        <v>1293.888542677275</v>
+        <v>1032.03977302091</v>
       </c>
       <c r="W45" t="n">
-        <v>1039.651185949073</v>
+        <v>912.7331190484915</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.651185949073</v>
+        <v>912.7331190484915</v>
       </c>
       <c r="Y45" t="n">
-        <v>831.8908871841195</v>
+        <v>912.7331190484915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51609824310267</v>
+        <v>158.162049935727</v>
       </c>
       <c r="C46" t="n">
         <v>34.51609824310267</v>
@@ -7819,19 +7819,19 @@
         <v>252.3605860007888</v>
       </c>
       <c r="O46" t="n">
-        <v>308.6022311620752</v>
+        <v>308.6022311620751</v>
       </c>
       <c r="P46" t="n">
-        <v>333.2059924131114</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="Q46" t="n">
-        <v>333.2059924131114</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="R46" t="n">
-        <v>333.2059924131114</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="S46" t="n">
-        <v>333.2059924131114</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="T46" t="n">
         <v>327.0438707029745</v>
@@ -7846,10 +7846,10 @@
         <v>163.0496088357584</v>
       </c>
       <c r="X46" t="n">
-        <v>34.51609824310267</v>
+        <v>158.162049935727</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51609824310267</v>
+        <v>158.162049935727</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>137.9085668823631</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8699,16 +8699,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>335.2630248788401</v>
       </c>
       <c r="O11" t="n">
-        <v>366.286455458281</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>158.1455797411812</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>167.4200842479937</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1453238860554</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>93.92920131251577</v>
+        <v>223.6721888111098</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>359.5280249379756</v>
+        <v>410.575605240391</v>
       </c>
       <c r="N12" t="n">
-        <v>397.9596201107002</v>
+        <v>60.61482556054109</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>82.04592319993662</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.9085668823631</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>222.0615130380206</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>188.526760348628</v>
       </c>
       <c r="Q14" t="n">
         <v>167.4200842479937</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K15" t="n">
-        <v>93.92920131251577</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>354.9930085563437</v>
       </c>
       <c r="M15" t="n">
-        <v>410.575605240391</v>
+        <v>73.23081069023186</v>
       </c>
       <c r="N15" t="n">
         <v>397.9596201107002</v>
       </c>
       <c r="O15" t="n">
-        <v>317.8690275199605</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>82.04592319993662</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>137.9085668823631</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9173,10 +9173,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>290.3681184669292</v>
       </c>
       <c r="O17" t="n">
-        <v>202.6333270279795</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,25 +9243,25 @@
         <v>101.1453238860554</v>
       </c>
       <c r="K18" t="n">
-        <v>93.92920131251577</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>410.575605240391</v>
+        <v>73.23081069023186</v>
       </c>
       <c r="N18" t="n">
-        <v>397.9596201107002</v>
+        <v>277.3039532183806</v>
       </c>
       <c r="O18" t="n">
-        <v>211.2062236795176</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>137.9085668823631</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9413,13 +9413,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>202.6333270279795</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>219.7148086383387</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>167.4200842479937</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K21" t="n">
-        <v>93.92920131251577</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>79.50895713681396</v>
       </c>
       <c r="M21" t="n">
-        <v>202.9737981888258</v>
+        <v>243.9065319645575</v>
       </c>
       <c r="N21" t="n">
         <v>397.9596201107002</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.9085668823631</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>177.1666066261101</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>271.3466792580668</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.1453238860554</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>93.92920131251577</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>330.0472971019905</v>
       </c>
       <c r="M24" t="n">
-        <v>410.5756052403911</v>
+        <v>410.575605240391</v>
       </c>
       <c r="N24" t="n">
-        <v>397.9596201107003</v>
+        <v>60.61482556054109</v>
       </c>
       <c r="O24" t="n">
-        <v>106.3978935343139</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K36" t="n">
         <v>93.92920131251577</v>
       </c>
       <c r="L36" t="n">
-        <v>146.6046206616506</v>
+        <v>276.3586622612082</v>
       </c>
       <c r="M36" t="n">
         <v>455.5718260802936</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,10 +10914,10 @@
         <v>442.9558409506029</v>
       </c>
       <c r="O39" t="n">
-        <v>340.3157345200628</v>
+        <v>128.8446005344157</v>
       </c>
       <c r="P39" t="n">
-        <v>82.04592319993662</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>105.2689575906448</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1453238860554</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>93.92920131251577</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>319.4871606321234</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>232.5074425178017</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1453238860554</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>147.3843467863842</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>232.5074425178017</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>222.4449553487148</v>
+        <v>104.1220075900414</v>
       </c>
       <c r="D11" t="n">
         <v>211.8551051983902</v>
@@ -23270,7 +23270,7 @@
         <v>264.0481093194187</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>271.9665480977252</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>184.9243220478421</v>
+        <v>184.9243220478422</v>
       </c>
       <c r="W11" t="n">
-        <v>206.4130322951202</v>
+        <v>206.4130322951203</v>
       </c>
       <c r="X11" t="n">
-        <v>153.6436003390514</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>108.2751315468725</v>
+        <v>239.9059052411879</v>
       </c>
       <c r="C14" t="n">
         <v>222.4449553487148</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>264.0481093194187</v>
       </c>
       <c r="G14" t="n">
-        <v>271.9665480977252</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>48.05352955385969</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>78.04303565571333</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>108.4770562459344</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>184.9243220478422</v>
       </c>
       <c r="W14" t="n">
-        <v>206.4130322951202</v>
+        <v>206.4130322951203</v>
       </c>
       <c r="X14" t="n">
-        <v>226.9031642561763</v>
+        <v>152.8401287478335</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>245782.9016151115</v>
+      </c>
+      <c r="C2" t="n">
         <v>245782.9016151114</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>245782.9016151115</v>
-      </c>
-      <c r="D2" t="n">
-        <v>245782.9016151114</v>
       </c>
       <c r="E2" t="n">
         <v>210912.0653495042</v>
@@ -26326,7 +26326,7 @@
         <v>210912.0653495042</v>
       </c>
       <c r="G2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="H2" t="n">
         <v>246312.5309592848</v>
@@ -26335,22 +26335,22 @@
         <v>246312.5309592848</v>
       </c>
       <c r="J2" t="n">
+        <v>246312.5309592849</v>
+      </c>
+      <c r="K2" t="n">
         <v>246312.5309592848</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>246312.5309592849</v>
-      </c>
-      <c r="L2" t="n">
-        <v>246312.5309592848</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592851</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>316558.66348776</v>
+        <v>316558.6634877599</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86781.64499674752</v>
+        <v>86781.64499674753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86781.64499674752</v>
+        <v>86781.64499674749</v>
       </c>
       <c r="M3" t="n">
-        <v>76347.91860002076</v>
+        <v>76347.91860002083</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32085.47662532955</v>
+        <v>32085.47662532948</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,7 +26445,7 @@
         <v>394231.1226104039</v>
       </c>
       <c r="L4" t="n">
-        <v>394231.1226104039</v>
+        <v>394231.1226104038</v>
       </c>
       <c r="M4" t="n">
         <v>394377.3697647621</v>
@@ -26491,13 +26491,13 @@
         <v>44393.65186654632</v>
       </c>
       <c r="J5" t="n">
-        <v>57462.9710127828</v>
+        <v>57462.97101278279</v>
       </c>
       <c r="K5" t="n">
-        <v>57462.9710127828</v>
+        <v>57462.97101278279</v>
       </c>
       <c r="L5" t="n">
-        <v>57462.9710127828</v>
+        <v>57462.97101278279</v>
       </c>
       <c r="M5" t="n">
         <v>45906.0686840944</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234869.3186572814</v>
+        <v>-234873.7322351495</v>
       </c>
       <c r="C6" t="n">
-        <v>-234869.3186572814</v>
+        <v>-234873.7322351496</v>
       </c>
       <c r="D6" t="n">
-        <v>-234869.3186572814</v>
+        <v>-234873.7322351495</v>
       </c>
       <c r="E6" t="n">
-        <v>-469927.1596843403</v>
+        <v>-470222.1635644218</v>
       </c>
       <c r="F6" t="n">
-        <v>-153368.4961965803</v>
+        <v>-153663.5000766617</v>
       </c>
       <c r="G6" t="n">
         <v>-281042.2711130437</v>
@@ -26546,19 +26546,19 @@
         <v>-331357.3546142443</v>
       </c>
       <c r="K6" t="n">
-        <v>-205381.5626639018</v>
+        <v>-205381.5626639019</v>
       </c>
       <c r="L6" t="n">
-        <v>-292163.2076606494</v>
+        <v>-292163.2076606492</v>
       </c>
       <c r="M6" t="n">
-        <v>-270318.8260895925</v>
+        <v>-270318.8260895927</v>
       </c>
       <c r="N6" t="n">
-        <v>-193970.9074895717</v>
+        <v>-193970.9074895718</v>
       </c>
       <c r="O6" t="n">
-        <v>-227222.5307690468</v>
+        <v>-227222.5307690466</v>
       </c>
       <c r="P6" t="n">
         <v>-195137.0541437172</v>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F2" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G2" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="H2" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="I2" t="n">
         <v>251.3049926682271</v>
@@ -26713,7 +26713,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="L2" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="M2" t="n">
         <v>236.7532148486027</v>
@@ -26808,19 +26808,19 @@
         <v>337.3447945501591</v>
       </c>
       <c r="I4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="J4" t="n">
-        <v>692.8008451099397</v>
+        <v>692.8008451099396</v>
       </c>
       <c r="K4" t="n">
-        <v>692.8008451099397</v>
+        <v>692.8008451099396</v>
       </c>
       <c r="L4" t="n">
         <v>692.8008451099397</v>
       </c>
       <c r="M4" t="n">
-        <v>382.3410153900618</v>
+        <v>382.3410153900617</v>
       </c>
       <c r="N4" t="n">
         <v>382.3410153900618</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.21606132209914</v>
+        <v>41.21606132209911</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>108.4770562459344</v>
       </c>
       <c r="M2" t="n">
-        <v>87.06009728056918</v>
+        <v>87.06009728056929</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.33381855150256</v>
+        <v>25.33381855150247</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>26.88496483028121</v>
+        <v>26.88496483028115</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.21606132209914</v>
+        <v>41.21606132209911</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>117.9425707366228</v>
       </c>
       <c r="S11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E12" t="n">
-        <v>110.8411262127363</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>109.6090828455255</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>45.53057278222153</v>
       </c>
       <c r="W12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>8.149808585994862</v>
+        <v>8.149808585995331</v>
       </c>
       <c r="O13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="P13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Q13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="R13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="S13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>117.9425707366228</v>
       </c>
       <c r="S14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="15">
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C15" t="n">
-        <v>110.8411262127362</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G15" t="n">
         <v>137.0715778366251</v>
@@ -28424,7 +28424,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I15" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>142.8279364222928</v>
+        <v>131.3207409136175</v>
       </c>
       <c r="U15" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="K16" t="n">
-        <v>8.149808585994883</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="L16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>142.8279364222928</v>
+        <v>8.149808585996198</v>
       </c>
       <c r="P16" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="R16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="S16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="C17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="D17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="E17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="F17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="G17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="H17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="I17" t="n">
-        <v>190.8814659761524</v>
+        <v>190.8814659761525</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28618,19 +28618,19 @@
         <v>220.8709720780061</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="V17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="W17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="X17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="Y17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -28652,10 +28652,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>50.36482495180682</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S18" t="n">
         <v>166.6320173841457</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U18" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.3049926682272</v>
+        <v>19.93913831750584</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.0714254388508</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>167.0423658965133</v>
@@ -28773,16 +28773,16 @@
         <v>220.0434448128683</v>
       </c>
       <c r="T19" t="n">
-        <v>226.9714725710416</v>
+        <v>69.39216025946462</v>
       </c>
       <c r="U19" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="W19" t="n">
-        <v>26.65425491779916</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="C20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="D20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="E20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="F20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="G20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="H20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="I20" t="n">
-        <v>190.8814659761524</v>
+        <v>190.8814659761525</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28858,16 +28858,16 @@
         <v>251.3049926682271</v>
       </c>
       <c r="V20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="W20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="X20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
     </row>
     <row r="21">
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>137.5789572652668</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -28892,7 +28892,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.6090828455255</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T21" t="n">
-        <v>96.79275748714544</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.7629945620835</v>
@@ -28980,7 +28980,7 @@
         <v>148.5943503235359</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,25 +29001,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.08239072429386</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R22" t="n">
         <v>167.0423658965133</v>
       </c>
       <c r="S22" t="n">
-        <v>220.0434448128683</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.9714725710416</v>
+        <v>222.3641796334821</v>
       </c>
       <c r="U22" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="V22" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="W22" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29056,7 +29056,7 @@
         <v>251.3049926682271</v>
       </c>
       <c r="I23" t="n">
-        <v>190.8814659761524</v>
+        <v>190.8814659761525</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29123,7 +29123,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,16 +29168,16 @@
         <v>166.6320173841457</v>
       </c>
       <c r="T24" t="n">
-        <v>171.1814657546178</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U24" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>218.5395331970749</v>
       </c>
       <c r="W24" t="n">
-        <v>251.3049926682271</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>148.5943503235359</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R25" t="n">
-        <v>86.70370859787602</v>
+        <v>167.0423658965133</v>
       </c>
       <c r="S25" t="n">
         <v>220.0434448128683</v>
@@ -29250,7 +29250,7 @@
         <v>226.9714725710416</v>
       </c>
       <c r="U25" t="n">
-        <v>251.3049926682271</v>
+        <v>26.65425491779934</v>
       </c>
       <c r="V25" t="n">
         <v>251.3049926682271</v>
@@ -29363,10 +29363,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>61.29134584535325</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0715778366251</v>
+        <v>131.9435476913906</v>
       </c>
       <c r="H27" t="n">
         <v>109.6090828455255</v>
@@ -29399,19 +29399,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29436,13 +29436,13 @@
         <v>149.6931175680335</v>
       </c>
       <c r="D28" t="n">
-        <v>149.6931175680335</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>149.6931175680335</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>149.6931175680335</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>149.6931175680335</v>
@@ -29451,19 +29451,19 @@
         <v>149.6931175680335</v>
       </c>
       <c r="I28" t="n">
-        <v>149.6931175680335</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J28" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="K28" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="M28" t="n">
-        <v>11.6409706648309</v>
+        <v>21.34860692571621</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="Q28" t="n">
         <v>149.6931175680335</v>
@@ -29542,7 +29542,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="M29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680331</v>
       </c>
       <c r="N29" t="n">
         <v>149.6931175680335</v>
@@ -29645,7 +29645,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="U30" t="n">
-        <v>61.29134584535313</v>
+        <v>61.29134584535359</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29679,7 +29679,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="G31" t="n">
         <v>149.6931175680335</v>
@@ -29688,28 +29688,28 @@
         <v>149.6931175680335</v>
       </c>
       <c r="I31" t="n">
-        <v>148.5943503235359</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="J31" t="n">
-        <v>77.24065501293978</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>149.6931175680335</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>93.80106948080979</v>
-      </c>
       <c r="P31" t="n">
-        <v>149.6931175680335</v>
+        <v>15.97777013611618</v>
       </c>
       <c r="Q31" t="n">
         <v>149.6931175680335</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="C32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="D32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="E32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="F32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="G32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="H32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="I32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="J32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="K32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="L32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="M32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="N32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="O32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="P32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="Q32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="R32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="S32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="T32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="U32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="V32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="W32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="X32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="Y32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
     </row>
     <row r="33">
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0715778366251</v>
@@ -29876,19 +29876,19 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S33" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="T33" t="n">
-        <v>61.29134584535308</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>65.91525102000327</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29904,40 +29904,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="C34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="D34" t="n">
-        <v>149.6931175680335</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>149.6931175680335</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>149.6931175680335</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="H34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="I34" t="n">
-        <v>149.6931175680335</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J34" t="n">
-        <v>149.6931175680335</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K34" t="n">
-        <v>149.6931175680335</v>
+        <v>26.72964404195973</v>
       </c>
       <c r="L34" t="n">
-        <v>11.64097066483086</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="Q34" t="n">
-        <v>149.6931175680335</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="S34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="T34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="U34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="V34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="W34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="X34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>236.7532148486027</v>
       </c>
       <c r="I35" t="n">
-        <v>190.8814659761524</v>
+        <v>190.8814659761525</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30119,10 +30119,10 @@
         <v>199.0686223740667</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9234913358047</v>
+        <v>194.6861840033612</v>
       </c>
       <c r="V36" t="n">
-        <v>201.5632798169815</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30186,19 +30186,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.0714254388508</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>167.0423658965133</v>
       </c>
       <c r="S37" t="n">
-        <v>39.04804052131385</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T37" t="n">
         <v>226.9714725710416</v>
       </c>
       <c r="U37" t="n">
-        <v>236.7532148486027</v>
+        <v>122.829235995899</v>
       </c>
       <c r="V37" t="n">
         <v>236.7532148486027</v>
@@ -30241,7 +30241,7 @@
         <v>236.7532148486027</v>
       </c>
       <c r="I38" t="n">
-        <v>190.8814659761524</v>
+        <v>190.8814659761525</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30302,16 +30302,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0715778366251</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>52.03643424500169</v>
       </c>
       <c r="S39" t="n">
-        <v>54.52467271263808</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T39" t="n">
         <v>199.0686223740667</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.7629945620835</v>
@@ -30435,7 +30435,7 @@
         <v>226.9714725710416</v>
       </c>
       <c r="U40" t="n">
-        <v>236.7532148486027</v>
+        <v>55.7578105570482</v>
       </c>
       <c r="V40" t="n">
         <v>236.7532148486027</v>
@@ -30444,7 +30444,7 @@
         <v>236.7532148486027</v>
       </c>
       <c r="X40" t="n">
-        <v>190.1352991204139</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30478,7 +30478,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="I41" t="n">
-        <v>190.8814659761524</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30493,10 +30493,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>38.10597451754734</v>
       </c>
       <c r="O41" t="n">
-        <v>194.4565995787768</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30505,10 +30505,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>117.9425707366228</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="S41" t="n">
-        <v>197.4382544600136</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="T41" t="n">
         <v>220.8709720780061</v>
@@ -30545,10 +30545,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.0715778366251</v>
@@ -30593,10 +30593,10 @@
         <v>199.0686223740667</v>
       </c>
       <c r="U42" t="n">
-        <v>91.83064551224371</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>79.25477745022656</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30630,7 +30630,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7629945620835</v>
+        <v>45.35350238638541</v>
       </c>
       <c r="H43" t="n">
         <v>160.2001804087575</v>
@@ -30678,7 +30678,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="W43" t="n">
-        <v>98.4614799023079</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="X43" t="n">
         <v>220.8709720780061</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>38.10597451754745</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>38.10597451754734</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I45" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>31.12687270215</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>133.5813957282256</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30855,7 +30855,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>44.83732892292979</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30918,7 +30918,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="X46" t="n">
-        <v>98.46147990230797</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -31750,31 +31750,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5082529951171374</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H11" t="n">
-        <v>5.205145986243385</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I11" t="n">
         <v>19.59442359425346</v>
       </c>
       <c r="J11" t="n">
-        <v>43.13733764432318</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K11" t="n">
         <v>64.65168692763162</v>
       </c>
       <c r="L11" t="n">
-        <v>80.20613452694774</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M11" t="n">
-        <v>89.24477872886212</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N11" t="n">
-        <v>90.6888525512387</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O11" t="n">
-        <v>85.63491183104266</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P11" t="n">
         <v>73.0874160140883</v>
@@ -31792,7 +31792,7 @@
         <v>2.22487748612527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04066023960937099</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>2.626361390970986</v>
       </c>
       <c r="I12" t="n">
-        <v>9.362823305686756</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J12" t="n">
         <v>25.69230278061126</v>
       </c>
       <c r="K12" t="n">
-        <v>43.91223766184322</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L12" t="n">
         <v>59.04542264306023</v>
       </c>
       <c r="M12" t="n">
-        <v>68.90322323178647</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N12" t="n">
         <v>70.72688652279221</v>
       </c>
       <c r="O12" t="n">
-        <v>64.70128354950184</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P12" t="n">
-        <v>51.92848421439363</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q12" t="n">
         <v>34.71281649537673</v>
       </c>
       <c r="R12" t="n">
-        <v>16.88409257519768</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S12" t="n">
-        <v>5.051153719692151</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T12" t="n">
         <v>1.09610632075492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01789074517010209</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>2.026992098682124</v>
       </c>
       <c r="I13" t="n">
-        <v>6.856124603722355</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J13" t="n">
         <v>16.11852510373299</v>
@@ -31926,7 +31926,7 @@
         <v>33.89512145383173</v>
       </c>
       <c r="M13" t="n">
-        <v>35.73765312635566</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N13" t="n">
         <v>34.88789161259324</v>
@@ -31935,7 +31935,7 @@
         <v>32.22461467311825</v>
       </c>
       <c r="P13" t="n">
-        <v>27.57372482706232</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q13" t="n">
         <v>19.09061781284359</v>
@@ -31944,10 +31944,10 @@
         <v>10.25102548065621</v>
       </c>
       <c r="S13" t="n">
-        <v>3.973153224103914</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9741168572398746</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U13" t="n">
         <v>0.0124355343477431</v>
@@ -31987,31 +31987,31 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5082529951171374</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H14" t="n">
-        <v>5.205145986243385</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I14" t="n">
         <v>19.59442359425346</v>
       </c>
       <c r="J14" t="n">
-        <v>43.13733764432318</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K14" t="n">
         <v>64.65168692763162</v>
       </c>
       <c r="L14" t="n">
-        <v>80.20613452694774</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M14" t="n">
-        <v>89.24477872886212</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N14" t="n">
-        <v>90.6888525512387</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O14" t="n">
-        <v>85.63491183104266</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P14" t="n">
         <v>73.0874160140883</v>
@@ -32029,7 +32029,7 @@
         <v>2.22487748612527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04066023960937099</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>2.626361390970986</v>
       </c>
       <c r="I15" t="n">
-        <v>9.362823305686756</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J15" t="n">
         <v>25.69230278061126</v>
       </c>
       <c r="K15" t="n">
-        <v>43.91223766184322</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L15" t="n">
         <v>59.04542264306023</v>
       </c>
       <c r="M15" t="n">
-        <v>68.90322323178647</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N15" t="n">
         <v>70.72688652279221</v>
       </c>
       <c r="O15" t="n">
-        <v>64.70128354950184</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P15" t="n">
-        <v>51.92848421439363</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q15" t="n">
         <v>34.71281649537673</v>
       </c>
       <c r="R15" t="n">
-        <v>16.88409257519768</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S15" t="n">
-        <v>5.051153719692151</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T15" t="n">
         <v>1.09610632075492</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01789074517010209</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>2.026992098682124</v>
       </c>
       <c r="I16" t="n">
-        <v>6.856124603722355</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J16" t="n">
         <v>16.11852510373299</v>
@@ -32163,7 +32163,7 @@
         <v>33.89512145383173</v>
       </c>
       <c r="M16" t="n">
-        <v>35.73765312635566</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N16" t="n">
         <v>34.88789161259324</v>
@@ -32172,7 +32172,7 @@
         <v>32.22461467311825</v>
       </c>
       <c r="P16" t="n">
-        <v>27.57372482706232</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q16" t="n">
         <v>19.09061781284359</v>
@@ -32181,10 +32181,10 @@
         <v>10.25102548065621</v>
       </c>
       <c r="S16" t="n">
-        <v>3.973153224103914</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9741168572398746</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U16" t="n">
         <v>0.0124355343477431</v>
@@ -32224,31 +32224,31 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5082529951171374</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H17" t="n">
-        <v>5.205145986243385</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I17" t="n">
         <v>19.59442359425346</v>
       </c>
       <c r="J17" t="n">
-        <v>43.13733764432318</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K17" t="n">
         <v>64.65168692763162</v>
       </c>
       <c r="L17" t="n">
-        <v>80.20613452694774</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M17" t="n">
-        <v>89.24477872886212</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N17" t="n">
-        <v>90.6888525512387</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O17" t="n">
-        <v>85.63491183104266</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P17" t="n">
         <v>73.0874160140883</v>
@@ -32266,7 +32266,7 @@
         <v>2.22487748612527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04066023960937099</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>2.626361390970986</v>
       </c>
       <c r="I18" t="n">
-        <v>9.362823305686756</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J18" t="n">
         <v>25.69230278061126</v>
       </c>
       <c r="K18" t="n">
-        <v>43.91223766184322</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L18" t="n">
         <v>59.04542264306023</v>
       </c>
       <c r="M18" t="n">
-        <v>68.90322323178647</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N18" t="n">
         <v>70.72688652279221</v>
       </c>
       <c r="O18" t="n">
-        <v>64.70128354950184</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P18" t="n">
-        <v>51.92848421439363</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q18" t="n">
         <v>34.71281649537673</v>
       </c>
       <c r="R18" t="n">
-        <v>16.88409257519768</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S18" t="n">
-        <v>5.051153719692151</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T18" t="n">
         <v>1.09610632075492</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01789074517010209</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>2.026992098682124</v>
       </c>
       <c r="I19" t="n">
-        <v>6.856124603722355</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J19" t="n">
         <v>16.11852510373299</v>
@@ -32400,7 +32400,7 @@
         <v>33.89512145383173</v>
       </c>
       <c r="M19" t="n">
-        <v>35.73765312635566</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N19" t="n">
         <v>34.88789161259324</v>
@@ -32409,7 +32409,7 @@
         <v>32.22461467311825</v>
       </c>
       <c r="P19" t="n">
-        <v>27.57372482706232</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q19" t="n">
         <v>19.09061781284359</v>
@@ -32418,10 +32418,10 @@
         <v>10.25102548065621</v>
       </c>
       <c r="S19" t="n">
-        <v>3.973153224103914</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9741168572398746</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U19" t="n">
         <v>0.0124355343477431</v>
@@ -32461,31 +32461,31 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5082529951171374</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H20" t="n">
-        <v>5.205145986243385</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I20" t="n">
         <v>19.59442359425346</v>
       </c>
       <c r="J20" t="n">
-        <v>43.13733764432318</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K20" t="n">
         <v>64.65168692763162</v>
       </c>
       <c r="L20" t="n">
-        <v>80.20613452694774</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M20" t="n">
-        <v>89.24477872886212</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N20" t="n">
-        <v>90.6888525512387</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O20" t="n">
-        <v>85.63491183104266</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P20" t="n">
         <v>73.0874160140883</v>
@@ -32503,7 +32503,7 @@
         <v>2.22487748612527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04066023960937099</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>2.626361390970986</v>
       </c>
       <c r="I21" t="n">
-        <v>9.362823305686756</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J21" t="n">
         <v>25.69230278061126</v>
       </c>
       <c r="K21" t="n">
-        <v>43.91223766184322</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L21" t="n">
         <v>59.04542264306023</v>
       </c>
       <c r="M21" t="n">
-        <v>68.90322323178647</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N21" t="n">
         <v>70.72688652279221</v>
       </c>
       <c r="O21" t="n">
-        <v>64.70128354950184</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P21" t="n">
-        <v>51.92848421439363</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q21" t="n">
         <v>34.71281649537673</v>
       </c>
       <c r="R21" t="n">
-        <v>16.88409257519768</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S21" t="n">
-        <v>5.051153719692151</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T21" t="n">
         <v>1.09610632075492</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01789074517010209</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>2.026992098682124</v>
       </c>
       <c r="I22" t="n">
-        <v>6.856124603722355</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J22" t="n">
         <v>16.11852510373299</v>
@@ -32637,7 +32637,7 @@
         <v>33.89512145383173</v>
       </c>
       <c r="M22" t="n">
-        <v>35.73765312635566</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N22" t="n">
         <v>34.88789161259324</v>
@@ -32646,7 +32646,7 @@
         <v>32.22461467311825</v>
       </c>
       <c r="P22" t="n">
-        <v>27.57372482706232</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q22" t="n">
         <v>19.09061781284359</v>
@@ -32655,10 +32655,10 @@
         <v>10.25102548065621</v>
       </c>
       <c r="S22" t="n">
-        <v>3.973153224103914</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9741168572398746</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U22" t="n">
         <v>0.0124355343477431</v>
@@ -32698,31 +32698,31 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5082529951171374</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H23" t="n">
-        <v>5.205145986243385</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I23" t="n">
         <v>19.59442359425346</v>
       </c>
       <c r="J23" t="n">
-        <v>43.13733764432318</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K23" t="n">
         <v>64.65168692763162</v>
       </c>
       <c r="L23" t="n">
-        <v>80.20613452694774</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M23" t="n">
-        <v>89.24477872886212</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N23" t="n">
-        <v>90.6888525512387</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O23" t="n">
-        <v>85.63491183104266</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P23" t="n">
         <v>73.0874160140883</v>
@@ -32740,7 +32740,7 @@
         <v>2.22487748612527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04066023960937099</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>2.626361390970986</v>
       </c>
       <c r="I24" t="n">
-        <v>9.362823305686756</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J24" t="n">
         <v>25.69230278061126</v>
       </c>
       <c r="K24" t="n">
-        <v>43.91223766184322</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L24" t="n">
         <v>59.04542264306023</v>
       </c>
       <c r="M24" t="n">
-        <v>68.90322323178647</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N24" t="n">
         <v>70.72688652279221</v>
       </c>
       <c r="O24" t="n">
-        <v>64.70128354950184</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P24" t="n">
-        <v>51.92848421439363</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q24" t="n">
         <v>34.71281649537673</v>
       </c>
       <c r="R24" t="n">
-        <v>16.88409257519768</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S24" t="n">
-        <v>5.051153719692151</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T24" t="n">
         <v>1.09610632075492</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01789074517010209</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,7 +32862,7 @@
         <v>2.026992098682124</v>
       </c>
       <c r="I25" t="n">
-        <v>6.856124603722355</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J25" t="n">
         <v>16.11852510373299</v>
@@ -32874,7 +32874,7 @@
         <v>33.89512145383173</v>
       </c>
       <c r="M25" t="n">
-        <v>35.73765312635566</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N25" t="n">
         <v>34.88789161259324</v>
@@ -32883,7 +32883,7 @@
         <v>32.22461467311825</v>
       </c>
       <c r="P25" t="n">
-        <v>27.57372482706232</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q25" t="n">
         <v>19.09061781284359</v>
@@ -32892,10 +32892,10 @@
         <v>10.25102548065621</v>
       </c>
       <c r="S25" t="n">
-        <v>3.973153224103914</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9741168572398746</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U25" t="n">
         <v>0.0124355343477431</v>
@@ -32935,31 +32935,31 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5082529951171374</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H26" t="n">
-        <v>5.205145986243385</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I26" t="n">
         <v>19.59442359425346</v>
       </c>
       <c r="J26" t="n">
-        <v>43.13733764432318</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K26" t="n">
         <v>64.65168692763162</v>
       </c>
       <c r="L26" t="n">
-        <v>80.20613452694774</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M26" t="n">
-        <v>89.24477872886212</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N26" t="n">
-        <v>90.6888525512387</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O26" t="n">
-        <v>85.63491183104266</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P26" t="n">
         <v>73.0874160140883</v>
@@ -32977,7 +32977,7 @@
         <v>2.22487748612527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04066023960937099</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>2.626361390970986</v>
       </c>
       <c r="I27" t="n">
-        <v>9.362823305686756</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J27" t="n">
         <v>25.69230278061126</v>
       </c>
       <c r="K27" t="n">
-        <v>43.91223766184322</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L27" t="n">
         <v>59.04542264306023</v>
       </c>
       <c r="M27" t="n">
-        <v>68.90322323178647</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N27" t="n">
         <v>70.72688652279221</v>
       </c>
       <c r="O27" t="n">
-        <v>64.70128354950184</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P27" t="n">
-        <v>51.92848421439363</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q27" t="n">
         <v>34.71281649537673</v>
       </c>
       <c r="R27" t="n">
-        <v>16.88409257519768</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S27" t="n">
-        <v>5.051153719692151</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T27" t="n">
         <v>1.09610632075492</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01789074517010209</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,7 +33099,7 @@
         <v>2.026992098682124</v>
       </c>
       <c r="I28" t="n">
-        <v>6.856124603722355</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J28" t="n">
         <v>16.11852510373299</v>
@@ -33111,7 +33111,7 @@
         <v>33.89512145383173</v>
       </c>
       <c r="M28" t="n">
-        <v>35.73765312635566</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N28" t="n">
         <v>34.88789161259324</v>
@@ -33120,7 +33120,7 @@
         <v>32.22461467311825</v>
       </c>
       <c r="P28" t="n">
-        <v>27.57372482706232</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q28" t="n">
         <v>19.09061781284359</v>
@@ -33129,10 +33129,10 @@
         <v>10.25102548065621</v>
       </c>
       <c r="S28" t="n">
-        <v>3.973153224103914</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9741168572398746</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U28" t="n">
         <v>0.0124355343477431</v>
@@ -33172,31 +33172,31 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5082529951171374</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H29" t="n">
-        <v>5.205145986243385</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I29" t="n">
         <v>19.59442359425346</v>
       </c>
       <c r="J29" t="n">
-        <v>43.13733764432318</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K29" t="n">
         <v>64.65168692763162</v>
       </c>
       <c r="L29" t="n">
-        <v>80.20613452694774</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M29" t="n">
-        <v>89.24477872886212</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N29" t="n">
-        <v>90.6888525512387</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O29" t="n">
-        <v>85.63491183104266</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P29" t="n">
         <v>73.0874160140883</v>
@@ -33214,7 +33214,7 @@
         <v>2.22487748612527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04066023960937099</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>2.626361390970986</v>
       </c>
       <c r="I30" t="n">
-        <v>9.362823305686756</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J30" t="n">
         <v>25.69230278061126</v>
       </c>
       <c r="K30" t="n">
-        <v>43.91223766184322</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L30" t="n">
         <v>59.04542264306023</v>
       </c>
       <c r="M30" t="n">
-        <v>68.90322323178647</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N30" t="n">
         <v>70.72688652279221</v>
       </c>
       <c r="O30" t="n">
-        <v>64.70128354950184</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P30" t="n">
-        <v>51.92848421439363</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q30" t="n">
         <v>34.71281649537673</v>
       </c>
       <c r="R30" t="n">
-        <v>16.88409257519768</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S30" t="n">
-        <v>5.051153719692151</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T30" t="n">
         <v>1.09610632075492</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01789074517010209</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,7 +33336,7 @@
         <v>2.026992098682124</v>
       </c>
       <c r="I31" t="n">
-        <v>6.856124603722355</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J31" t="n">
         <v>16.11852510373299</v>
@@ -33348,7 +33348,7 @@
         <v>33.89512145383173</v>
       </c>
       <c r="M31" t="n">
-        <v>35.73765312635566</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N31" t="n">
         <v>34.88789161259324</v>
@@ -33357,7 +33357,7 @@
         <v>32.22461467311825</v>
       </c>
       <c r="P31" t="n">
-        <v>27.57372482706232</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q31" t="n">
         <v>19.09061781284359</v>
@@ -33366,10 +33366,10 @@
         <v>10.25102548065621</v>
       </c>
       <c r="S31" t="n">
-        <v>3.973153224103914</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9741168572398746</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U31" t="n">
         <v>0.0124355343477431</v>
@@ -33409,31 +33409,31 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5082529951171374</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H32" t="n">
-        <v>5.205145986243385</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I32" t="n">
         <v>19.59442359425346</v>
       </c>
       <c r="J32" t="n">
-        <v>43.13733764432318</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K32" t="n">
         <v>64.65168692763162</v>
       </c>
       <c r="L32" t="n">
-        <v>80.20613452694774</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M32" t="n">
-        <v>89.24477872886212</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N32" t="n">
-        <v>90.6888525512387</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O32" t="n">
-        <v>85.63491183104266</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P32" t="n">
         <v>73.0874160140883</v>
@@ -33451,7 +33451,7 @@
         <v>2.22487748612527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04066023960937099</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>2.626361390970986</v>
       </c>
       <c r="I33" t="n">
-        <v>9.362823305686756</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J33" t="n">
         <v>25.69230278061126</v>
       </c>
       <c r="K33" t="n">
-        <v>43.91223766184322</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L33" t="n">
         <v>59.04542264306023</v>
       </c>
       <c r="M33" t="n">
-        <v>68.90322323178647</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N33" t="n">
         <v>70.72688652279221</v>
       </c>
       <c r="O33" t="n">
-        <v>64.70128354950184</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P33" t="n">
-        <v>51.92848421439363</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q33" t="n">
         <v>34.71281649537673</v>
       </c>
       <c r="R33" t="n">
-        <v>16.88409257519768</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S33" t="n">
-        <v>5.051153719692151</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T33" t="n">
         <v>1.09610632075492</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01789074517010209</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,7 +33573,7 @@
         <v>2.026992098682124</v>
       </c>
       <c r="I34" t="n">
-        <v>6.856124603722355</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J34" t="n">
         <v>16.11852510373299</v>
@@ -33585,7 +33585,7 @@
         <v>33.89512145383173</v>
       </c>
       <c r="M34" t="n">
-        <v>35.73765312635566</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N34" t="n">
         <v>34.88789161259324</v>
@@ -33594,7 +33594,7 @@
         <v>32.22461467311825</v>
       </c>
       <c r="P34" t="n">
-        <v>27.57372482706232</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q34" t="n">
         <v>19.09061781284359</v>
@@ -33603,10 +33603,10 @@
         <v>10.25102548065621</v>
       </c>
       <c r="S34" t="n">
-        <v>3.973153224103914</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9741168572398746</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U34" t="n">
         <v>0.0124355343477431</v>
@@ -33646,31 +33646,31 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5082529951171374</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H35" t="n">
-        <v>5.205145986243385</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I35" t="n">
         <v>19.59442359425346</v>
       </c>
       <c r="J35" t="n">
-        <v>43.13733764432318</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K35" t="n">
         <v>64.65168692763162</v>
       </c>
       <c r="L35" t="n">
-        <v>80.20613452694774</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M35" t="n">
-        <v>89.24477872886212</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N35" t="n">
-        <v>90.6888525512387</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O35" t="n">
-        <v>85.63491183104266</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P35" t="n">
         <v>73.0874160140883</v>
@@ -33688,7 +33688,7 @@
         <v>2.22487748612527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04066023960937099</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>2.626361390970986</v>
       </c>
       <c r="I36" t="n">
-        <v>9.362823305686756</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J36" t="n">
         <v>25.69230278061126</v>
       </c>
       <c r="K36" t="n">
-        <v>43.91223766184322</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L36" t="n">
         <v>59.04542264306023</v>
       </c>
       <c r="M36" t="n">
-        <v>68.90322323178647</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N36" t="n">
         <v>70.72688652279221</v>
       </c>
       <c r="O36" t="n">
-        <v>64.70128354950184</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P36" t="n">
-        <v>51.92848421439363</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q36" t="n">
         <v>34.71281649537673</v>
       </c>
       <c r="R36" t="n">
-        <v>16.88409257519768</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S36" t="n">
-        <v>5.051153719692151</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T36" t="n">
         <v>1.09610632075492</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01789074517010209</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,7 +33810,7 @@
         <v>2.026992098682124</v>
       </c>
       <c r="I37" t="n">
-        <v>6.856124603722355</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J37" t="n">
         <v>16.11852510373299</v>
@@ -33822,7 +33822,7 @@
         <v>33.89512145383173</v>
       </c>
       <c r="M37" t="n">
-        <v>35.73765312635566</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N37" t="n">
         <v>34.88789161259324</v>
@@ -33831,7 +33831,7 @@
         <v>32.22461467311825</v>
       </c>
       <c r="P37" t="n">
-        <v>27.57372482706232</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q37" t="n">
         <v>19.09061781284359</v>
@@ -33840,10 +33840,10 @@
         <v>10.25102548065621</v>
       </c>
       <c r="S37" t="n">
-        <v>3.973153224103914</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9741168572398746</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U37" t="n">
         <v>0.0124355343477431</v>
@@ -33883,31 +33883,31 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5082529951171374</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H38" t="n">
-        <v>5.205145986243385</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I38" t="n">
         <v>19.59442359425346</v>
       </c>
       <c r="J38" t="n">
-        <v>43.13733764432318</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K38" t="n">
         <v>64.65168692763162</v>
       </c>
       <c r="L38" t="n">
-        <v>80.20613452694774</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M38" t="n">
-        <v>89.24477872886212</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N38" t="n">
-        <v>90.6888525512387</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O38" t="n">
-        <v>85.63491183104266</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P38" t="n">
         <v>73.0874160140883</v>
@@ -33925,7 +33925,7 @@
         <v>2.22487748612527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04066023960937099</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>2.626361390970986</v>
       </c>
       <c r="I39" t="n">
-        <v>9.362823305686756</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J39" t="n">
         <v>25.69230278061126</v>
       </c>
       <c r="K39" t="n">
-        <v>43.91223766184322</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L39" t="n">
         <v>59.04542264306023</v>
       </c>
       <c r="M39" t="n">
-        <v>68.90322323178647</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N39" t="n">
         <v>70.72688652279221</v>
       </c>
       <c r="O39" t="n">
-        <v>64.70128354950184</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P39" t="n">
-        <v>51.92848421439363</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q39" t="n">
         <v>34.71281649537673</v>
       </c>
       <c r="R39" t="n">
-        <v>16.88409257519768</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S39" t="n">
-        <v>5.051153719692151</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T39" t="n">
         <v>1.09610632075492</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01789074517010209</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,7 +34047,7 @@
         <v>2.026992098682124</v>
       </c>
       <c r="I40" t="n">
-        <v>6.856124603722355</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J40" t="n">
         <v>16.11852510373299</v>
@@ -34059,7 +34059,7 @@
         <v>33.89512145383173</v>
       </c>
       <c r="M40" t="n">
-        <v>35.73765312635566</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N40" t="n">
         <v>34.88789161259324</v>
@@ -34068,7 +34068,7 @@
         <v>32.22461467311825</v>
       </c>
       <c r="P40" t="n">
-        <v>27.57372482706232</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q40" t="n">
         <v>19.09061781284359</v>
@@ -34077,10 +34077,10 @@
         <v>10.25102548065621</v>
       </c>
       <c r="S40" t="n">
-        <v>3.973153224103914</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9741168572398746</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U40" t="n">
         <v>0.0124355343477431</v>
@@ -34120,31 +34120,31 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5082529951171374</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H41" t="n">
-        <v>5.205145986243385</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I41" t="n">
         <v>19.59442359425346</v>
       </c>
       <c r="J41" t="n">
-        <v>43.13733764432318</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K41" t="n">
         <v>64.65168692763162</v>
       </c>
       <c r="L41" t="n">
-        <v>80.20613452694774</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M41" t="n">
-        <v>89.24477872886212</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N41" t="n">
-        <v>90.6888525512387</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O41" t="n">
-        <v>85.63491183104266</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P41" t="n">
         <v>73.0874160140883</v>
@@ -34162,7 +34162,7 @@
         <v>2.22487748612527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04066023960937099</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>2.626361390970986</v>
       </c>
       <c r="I42" t="n">
-        <v>9.362823305686756</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J42" t="n">
         <v>25.69230278061126</v>
       </c>
       <c r="K42" t="n">
-        <v>43.91223766184322</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L42" t="n">
         <v>59.04542264306023</v>
       </c>
       <c r="M42" t="n">
-        <v>68.90322323178647</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N42" t="n">
         <v>70.72688652279221</v>
       </c>
       <c r="O42" t="n">
-        <v>64.70128354950184</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P42" t="n">
-        <v>51.92848421439363</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q42" t="n">
         <v>34.71281649537673</v>
       </c>
       <c r="R42" t="n">
-        <v>16.88409257519768</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S42" t="n">
-        <v>5.051153719692151</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T42" t="n">
         <v>1.09610632075492</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01789074517010209</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>2.026992098682124</v>
       </c>
       <c r="I43" t="n">
-        <v>6.856124603722355</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J43" t="n">
         <v>16.11852510373299</v>
@@ -34296,7 +34296,7 @@
         <v>33.89512145383173</v>
       </c>
       <c r="M43" t="n">
-        <v>35.73765312635566</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N43" t="n">
         <v>34.88789161259324</v>
@@ -34305,7 +34305,7 @@
         <v>32.22461467311825</v>
       </c>
       <c r="P43" t="n">
-        <v>27.57372482706232</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q43" t="n">
         <v>19.09061781284359</v>
@@ -34314,10 +34314,10 @@
         <v>10.25102548065621</v>
       </c>
       <c r="S43" t="n">
-        <v>3.973153224103914</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9741168572398746</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U43" t="n">
         <v>0.0124355343477431</v>
@@ -34357,31 +34357,31 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5082529951171374</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H44" t="n">
-        <v>5.205145986243385</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I44" t="n">
         <v>19.59442359425346</v>
       </c>
       <c r="J44" t="n">
-        <v>43.13733764432318</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K44" t="n">
         <v>64.65168692763162</v>
       </c>
       <c r="L44" t="n">
-        <v>80.20613452694774</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M44" t="n">
-        <v>89.24477872886212</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N44" t="n">
-        <v>90.6888525512387</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O44" t="n">
-        <v>85.63491183104266</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P44" t="n">
         <v>73.0874160140883</v>
@@ -34399,7 +34399,7 @@
         <v>2.22487748612527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04066023960937099</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>2.626361390970986</v>
       </c>
       <c r="I45" t="n">
-        <v>9.362823305686756</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J45" t="n">
         <v>25.69230278061126</v>
       </c>
       <c r="K45" t="n">
-        <v>43.91223766184322</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L45" t="n">
         <v>59.04542264306023</v>
       </c>
       <c r="M45" t="n">
-        <v>68.90322323178647</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N45" t="n">
         <v>70.72688652279221</v>
       </c>
       <c r="O45" t="n">
-        <v>64.70128354950184</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P45" t="n">
-        <v>51.92848421439363</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q45" t="n">
         <v>34.71281649537673</v>
       </c>
       <c r="R45" t="n">
-        <v>16.88409257519768</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S45" t="n">
-        <v>5.051153719692151</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T45" t="n">
         <v>1.09610632075492</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01789074517010209</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,7 +34521,7 @@
         <v>2.026992098682124</v>
       </c>
       <c r="I46" t="n">
-        <v>6.856124603722355</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J46" t="n">
         <v>16.11852510373299</v>
@@ -34533,7 +34533,7 @@
         <v>33.89512145383173</v>
       </c>
       <c r="M46" t="n">
-        <v>35.73765312635566</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N46" t="n">
         <v>34.88789161259324</v>
@@ -34542,7 +34542,7 @@
         <v>32.22461467311825</v>
       </c>
       <c r="P46" t="n">
-        <v>27.57372482706232</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q46" t="n">
         <v>19.09061781284359</v>
@@ -34551,10 +34551,10 @@
         <v>10.25102548065621</v>
       </c>
       <c r="S46" t="n">
-        <v>3.973153224103914</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9741168572398746</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U46" t="n">
         <v>0.0124355343477431</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>31.18804828971066</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>168.7072484538158</v>
@@ -35416,19 +35416,19 @@
         <v>262.1009341074109</v>
       </c>
       <c r="M11" t="n">
-        <v>308.4120789944219</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N11" t="n">
-        <v>298.622713366632</v>
+        <v>196.5388138334879</v>
       </c>
       <c r="O11" t="n">
-        <v>221.8231558676369</v>
+        <v>236.3368816721013</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.894906411911</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>129.742987498594</v>
       </c>
       <c r="L12" t="n">
         <v>291.3313881666452</v>
       </c>
       <c r="M12" t="n">
-        <v>286.2972142477437</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N12" t="n">
-        <v>337.3447945501591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>315.9673583817869</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.58728140935298</v>
+        <v>65.58728140935295</v>
       </c>
       <c r="K13" t="n">
-        <v>4.21819633480991</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L13" t="n">
         <v>204.3130831364406</v>
       </c>
       <c r="M13" t="n">
-        <v>75.32153008819625</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N13" t="n">
-        <v>87.1698725778167</v>
+        <v>87.16987257781716</v>
       </c>
       <c r="O13" t="n">
         <v>199.6376790094507</v>
       </c>
       <c r="P13" t="n">
-        <v>167.6802205142486</v>
+        <v>167.6802205142485</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.75651098344197</v>
+        <v>75.75651098344194</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>31.18804828971066</v>
       </c>
       <c r="K14" t="n">
-        <v>66.62334892067165</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L14" t="n">
         <v>262.1009341074109</v>
       </c>
       <c r="M14" t="n">
-        <v>308.4120789944219</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N14" t="n">
         <v>298.622713366632</v>
@@ -35662,7 +35662,7 @@
         <v>236.3368816721013</v>
       </c>
       <c r="P14" t="n">
-        <v>163.6531284303014</v>
+        <v>30.38118060744683</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.94571145435341</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L15" t="n">
-        <v>291.3313881666452</v>
+        <v>275.4840514195298</v>
       </c>
       <c r="M15" t="n">
-        <v>337.3447945501591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>337.3447945501591</v>
       </c>
       <c r="O15" t="n">
-        <v>239.9740666250179</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.58728140935298</v>
+        <v>65.58728140935293</v>
       </c>
       <c r="K16" t="n">
-        <v>12.36800492080479</v>
+        <v>147.0461327571026</v>
       </c>
       <c r="L16" t="n">
         <v>204.3130831364406</v>
       </c>
       <c r="M16" t="n">
-        <v>75.32153008819625</v>
+        <v>218.1494665104889</v>
       </c>
       <c r="N16" t="n">
-        <v>79.02006399182184</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O16" t="n">
-        <v>199.6376790094507</v>
+        <v>64.95955117315413</v>
       </c>
       <c r="P16" t="n">
-        <v>167.6802205142486</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.75651098344197</v>
+        <v>75.75651098344191</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>31.18804828971066</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>168.7072484538158</v>
@@ -35890,13 +35890,13 @@
         <v>262.1009341074109</v>
       </c>
       <c r="M17" t="n">
-        <v>308.4120789944219</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N17" t="n">
-        <v>298.622713366632</v>
+        <v>151.643907421577</v>
       </c>
       <c r="O17" t="n">
-        <v>58.17002743733541</v>
+        <v>236.3368816721013</v>
       </c>
       <c r="P17" t="n">
         <v>163.6531284303014</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L18" t="n">
         <v>291.3313881666452</v>
       </c>
       <c r="M18" t="n">
-        <v>337.3447945501591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>337.3447945501591</v>
+        <v>216.6891276578395</v>
       </c>
       <c r="O18" t="n">
-        <v>133.311262784575</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P18" t="n">
         <v>236.4168454400005</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.21819633480991</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L19" t="n">
         <v>61.48514671414787</v>
       </c>
       <c r="M19" t="n">
-        <v>75.32153008819625</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N19" t="n">
-        <v>79.02006399182184</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O19" t="n">
         <v>56.80974258715793</v>
       </c>
       <c r="P19" t="n">
-        <v>24.85228409195581</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>31.18804828971066</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>168.7072484538158</v>
@@ -36127,19 +36127,19 @@
         <v>262.1009341074109</v>
       </c>
       <c r="M20" t="n">
-        <v>308.4120789944219</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N20" t="n">
         <v>298.622713366632</v>
       </c>
       <c r="O20" t="n">
-        <v>58.17002743733541</v>
+        <v>236.3368816721013</v>
       </c>
       <c r="P20" t="n">
-        <v>163.6531284303014</v>
+        <v>61.56922889715749</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.894906411911</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.94571145435341</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L21" t="n">
-        <v>291.3313881666452</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>129.7429874985939</v>
+        <v>170.6757212743257</v>
       </c>
       <c r="N21" t="n">
         <v>337.3447945501591</v>
@@ -36218,7 +36218,7 @@
         <v>236.4168454400005</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>4.21819633480991</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L22" t="n">
         <v>61.48514671414787</v>
       </c>
       <c r="M22" t="n">
-        <v>75.32153008819625</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N22" t="n">
-        <v>79.02006399182184</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O22" t="n">
         <v>56.80974258715793</v>
       </c>
       <c r="P22" t="n">
-        <v>24.85228409195581</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>31.18804828971066</v>
       </c>
       <c r="K23" t="n">
-        <v>21.72844250876118</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L23" t="n">
         <v>262.1009341074109</v>
       </c>
       <c r="M23" t="n">
-        <v>308.4120789944219</v>
+        <v>130.2452247596562</v>
       </c>
       <c r="N23" t="n">
         <v>298.622713366632</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L24" t="n">
-        <v>291.3313881666452</v>
+        <v>250.5383399651765</v>
       </c>
       <c r="M24" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N24" t="n">
-        <v>337.3447945501592</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>28.50293263937128</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P24" t="n">
         <v>236.4168454400005</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.21819633480991</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L25" t="n">
         <v>61.48514671414787</v>
       </c>
       <c r="M25" t="n">
-        <v>75.32153008819625</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N25" t="n">
-        <v>79.02006399182184</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O25" t="n">
         <v>56.80974258715793</v>
       </c>
       <c r="P25" t="n">
-        <v>24.85228409195581</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.94571145435341</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K27" t="n">
         <v>170.5360357000628</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.077644549821144</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.259154921464329</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.272069545102255</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,28 +36747,28 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.098767244497571</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>72.45246255509372</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9113139028434</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L28" t="n">
         <v>211.1782642821814</v>
       </c>
       <c r="M28" t="n">
-        <v>86.96250075302716</v>
+        <v>96.67013701391245</v>
       </c>
       <c r="N28" t="n">
-        <v>79.02006399182184</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O28" t="n">
         <v>56.80974258715793</v>
       </c>
       <c r="P28" t="n">
-        <v>24.85228409195581</v>
+        <v>174.5454016599893</v>
       </c>
       <c r="Q28" t="n">
         <v>82.6216921291827</v>
@@ -36838,7 +36838,7 @@
         <v>411.7940516754444</v>
       </c>
       <c r="M29" t="n">
-        <v>458.1051965624554</v>
+        <v>458.105196562455</v>
       </c>
       <c r="N29" t="n">
         <v>448.3158309346654</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.94571145435341</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K30" t="n">
         <v>170.5360357000628</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.272069545102255</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,28 +36984,28 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.09876724449757</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.45246255509372</v>
       </c>
       <c r="K31" t="n">
-        <v>4.21819633480991</v>
+        <v>153.9113139028434</v>
       </c>
       <c r="L31" t="n">
         <v>61.48514671414787</v>
       </c>
       <c r="M31" t="n">
-        <v>225.0146476562298</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N31" t="n">
-        <v>79.02006399182184</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O31" t="n">
-        <v>150.6108120679677</v>
+        <v>206.5028601551914</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5454016599893</v>
+        <v>40.83005422807198</v>
       </c>
       <c r="Q31" t="n">
         <v>82.6216921291827</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.8811658577442</v>
+        <v>180.8811658577441</v>
       </c>
       <c r="K32" t="n">
         <v>318.4003660218493</v>
@@ -37075,22 +37075,22 @@
         <v>411.7940516754444</v>
       </c>
       <c r="M32" t="n">
-        <v>458.1051965624554</v>
+        <v>458.1051965624553</v>
       </c>
       <c r="N32" t="n">
         <v>448.3158309346654</v>
       </c>
       <c r="O32" t="n">
-        <v>386.0299992401348</v>
+        <v>386.0299992401347</v>
       </c>
       <c r="P32" t="n">
-        <v>313.3462459983349</v>
+        <v>313.3462459983348</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.5880239799445</v>
+        <v>194.5880239799444</v>
       </c>
       <c r="R32" t="n">
-        <v>31.75054683141073</v>
+        <v>31.75054683141067</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.94571145435341</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K33" t="n">
         <v>170.5360357000628</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.077644549821144</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3.259154921464329</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.272069545102255</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.098767244497571</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.45246255509372</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>153.9113139028434</v>
+        <v>30.94784037676964</v>
       </c>
       <c r="L34" t="n">
-        <v>73.12611737897873</v>
+        <v>211.1782642821813</v>
       </c>
       <c r="M34" t="n">
-        <v>75.32153008819625</v>
+        <v>225.0146476562297</v>
       </c>
       <c r="N34" t="n">
-        <v>79.02006399182184</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O34" t="n">
         <v>56.80974258715793</v>
       </c>
       <c r="P34" t="n">
-        <v>174.5454016599893</v>
+        <v>174.5454016599892</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.6216921291827</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>262.1009341074109</v>
       </c>
       <c r="M35" t="n">
-        <v>308.4120789944219</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N35" t="n">
         <v>298.622713366632</v>
@@ -37324,7 +37324,7 @@
         <v>163.6531284303014</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.89490641191116</v>
+        <v>44.894906411911</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.94571145435341</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>67.09566352483661</v>
+        <v>196.8497051243942</v>
       </c>
       <c r="M36" t="n">
-        <v>382.3410153900618</v>
+        <v>382.3410153900617</v>
       </c>
       <c r="N36" t="n">
-        <v>382.3410153900618</v>
+        <v>382.3410153900617</v>
       </c>
       <c r="O36" t="n">
         <v>315.9673583817869</v>
@@ -37403,7 +37403,7 @@
         <v>236.4168454400005</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.21819633480991</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L37" t="n">
         <v>61.48514671414787</v>
       </c>
       <c r="M37" t="n">
-        <v>75.32153008819625</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N37" t="n">
-        <v>79.02006399182184</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O37" t="n">
         <v>56.80974258715793</v>
       </c>
       <c r="P37" t="n">
-        <v>24.85228409195581</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>262.1009341074109</v>
       </c>
       <c r="M38" t="n">
-        <v>308.4120789944219</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N38" t="n">
         <v>298.622713366632</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.94571145435341</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>170.5360357000628</v>
@@ -37634,10 +37634,10 @@
         <v>382.3410153900618</v>
       </c>
       <c r="O39" t="n">
-        <v>262.4207736251203</v>
+        <v>50.94963963947314</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>4.21819633480991</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L40" t="n">
         <v>61.48514671414787</v>
       </c>
       <c r="M40" t="n">
-        <v>75.32153008819625</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N40" t="n">
-        <v>79.02006399182184</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O40" t="n">
         <v>56.80974258715793</v>
       </c>
       <c r="P40" t="n">
-        <v>24.85228409195581</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.98950610185362</v>
       </c>
       <c r="J41" t="n">
         <v>31.18804828971066</v>
@@ -37786,13 +37786,13 @@
         <v>262.1009341074109</v>
       </c>
       <c r="M41" t="n">
-        <v>308.4120789944219</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N41" t="n">
-        <v>298.622713366632</v>
+        <v>336.7286878841793</v>
       </c>
       <c r="O41" t="n">
-        <v>430.7934812508781</v>
+        <v>236.3368816721013</v>
       </c>
       <c r="P41" t="n">
         <v>163.6531284303014</v>
@@ -37801,10 +37801,10 @@
         <v>44.894906411911</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>102.9284013413833</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>23.43271761799252</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L42" t="n">
-        <v>239.9782034953094</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M42" t="n">
         <v>392.474253059768</v>
       </c>
       <c r="N42" t="n">
-        <v>418.7275487830124</v>
+        <v>171.8926169572606</v>
       </c>
       <c r="O42" t="n">
         <v>315.9673583817869</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.21819633480991</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L43" t="n">
         <v>61.48514671414787</v>
       </c>
       <c r="M43" t="n">
-        <v>75.32153008819625</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N43" t="n">
-        <v>79.02006399182184</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O43" t="n">
         <v>56.80974258715793</v>
       </c>
       <c r="P43" t="n">
-        <v>24.85228409195581</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38020,16 +38020,16 @@
         <v>168.7072484538158</v>
       </c>
       <c r="L44" t="n">
-        <v>262.1009341074109</v>
+        <v>300.2069086249584</v>
       </c>
       <c r="M44" t="n">
-        <v>308.4120789944219</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N44" t="n">
         <v>298.622713366632</v>
       </c>
       <c r="O44" t="n">
-        <v>274.4428561896486</v>
+        <v>236.3368816721013</v>
       </c>
       <c r="P44" t="n">
         <v>163.6531284303014</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K45" t="n">
-        <v>53.4551454738684</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L45" t="n">
         <v>291.3313881666452</v>
@@ -38105,7 +38105,7 @@
         <v>392.474253059768</v>
       </c>
       <c r="N45" t="n">
-        <v>418.7275487830124</v>
+        <v>171.8926169572606</v>
       </c>
       <c r="O45" t="n">
         <v>315.9673583817869</v>
@@ -38114,7 +38114,7 @@
         <v>236.4168454400005</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.21819633480991</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L46" t="n">
         <v>61.48514671414787</v>
       </c>
       <c r="M46" t="n">
-        <v>75.32153008819625</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N46" t="n">
-        <v>79.02006399182184</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O46" t="n">
         <v>56.80974258715793</v>
       </c>
       <c r="P46" t="n">
-        <v>24.85228409195581</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
